--- a/news_data/2015_05.xlsx
+++ b/news_data/2015_05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,46 +22,175 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 무자격 관광가이드 집중단속</t>
+  </si>
+  <si>
+    <t>제주도 분양형 호텔 급부상…관광객 줄면 수익성↓ 우려</t>
+  </si>
+  <si>
+    <t>‘관광객 유입 많은’제주도 메르스 대책반 가동</t>
+  </si>
+  <si>
+    <t>김포공항 경유 제주도 관광객 ‘무비자’</t>
+  </si>
+  <si>
+    <t>제주도 중국인들로 ‘인산인해’…저가 관광지?</t>
+  </si>
+  <si>
+    <t>샘 오취리, "제주도 관광? 정답은 &lt;맨도롱 또똣&gt; 촬영!"</t>
+  </si>
+  <si>
+    <t>제주도.中 하이난성, 관광.인문교류 협력 강화</t>
+  </si>
+  <si>
+    <t>제주도-하이난성, 관광·인문교류 협력 강화</t>
+  </si>
+  <si>
+    <t>외국인 관광객 유치 순위, 5월 13일까지 제주도에 중국인 85만명 다녀갔다</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 33대 자문위원 위촉</t>
+  </si>
+  <si>
+    <t>제주도관광협회 마케팅 국장, 고승익씨 선임</t>
+  </si>
+  <si>
+    <t>제주도 미 착공·준공 관광숙박업 27곳 승인 취소계획</t>
+  </si>
+  <si>
+    <t>관광도시 제주도, 디아일랜드마리나호텔 2차 노려</t>
+  </si>
+  <si>
+    <t>관광객 몰리는 제주도만 경제 살아나</t>
+  </si>
+  <si>
+    <t>제주도, 무자격 가이드 합동단속 ... 관광무질서 사라질까</t>
+  </si>
+  <si>
+    <t>제주도, 우수관광사업체 지정 공모</t>
+  </si>
+  <si>
+    <t>제주도관광협회 33대 자문위원회 본격 활동</t>
+  </si>
+  <si>
+    <t>제주도 상하이 관광박람회서 마케팅</t>
+  </si>
+  <si>
+    <t>제주도 푸른 밤 100% 즐기기...최고의 야간관광코스는?</t>
+  </si>
+  <si>
+    <t>제주도, 외국인 관광객 역대 최단 기간 100만 명 돌파</t>
+  </si>
+  <si>
+    <t>제주도, 장기 미착공·공사중단 관광숙박업 27곳 정비</t>
+  </si>
+  <si>
+    <t>제주도, 4월 관광객 사상 최고</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 마을여행 네트워크 시범마을 선정</t>
+  </si>
+  <si>
+    <t>제주도 관광객 날로 늘어…4월 역대 최다</t>
+  </si>
+  <si>
     <t>제주도·코레일 함게 관광산업 경쟁력 높인다</t>
   </si>
   <si>
+    <t>코레일·제주도, 철도관광 활성화 MOU</t>
+  </si>
+  <si>
+    <t>제주도 한달 관광객 수 최고 기록 경신</t>
+  </si>
+  <si>
+    <t>관광객 유치 1등 제주도에 데이즈호텔 3차 분양 시작</t>
+  </si>
+  <si>
+    <t>장수 오룡봉 청년회, 가정의 달 맞아 제주도 효도관광 '선행'</t>
+  </si>
+  <si>
+    <t>제주도 관광객 증가 추이, 수요자 품을 ‘골든튤립 제주노형호텔’</t>
+  </si>
+  <si>
     <t>제주도, 상하이 세계관광박람회 참가</t>
   </si>
   <si>
-    <t>코레일·제주도, 철도관광 활성화 MOU</t>
-  </si>
-  <si>
-    <t>제주도 한달 관광객 수 최고 기록 경신</t>
-  </si>
-  <si>
-    <t>관광객 유치 1등 제주도에 데이즈호텔 3차 분양 시작</t>
-  </si>
-  <si>
-    <t>장수 오룡봉 청년회, 가정의 달 맞아 제주도 효도관광 '선행'</t>
-  </si>
-  <si>
-    <t>제주도 관광객 증가 추이, 수요자 품을 ‘골든튤립 제주노형호텔’</t>
-  </si>
-  <si>
     <t>제주도, 올들어 최다 관광객…1일 5만명 ‘훌쩍’</t>
   </si>
   <si>
-    <t>제주도·코레일 함께 관광산업 경쟁력 높인다 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도·코레일 함께 관광산업 경쟁력 높인다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도·코레일 함께 관광산업 경쟁력 높인다 기자명 최병근 기자 입력 2015.05.01 14:13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 특산품 판로 확대·여객선 연계 항공기 공급 분산 유도 ▲ 제주도와 한국철도공사가 1일 제주도청에서 제주특산품의 판로확대와 국내 관광산업의 경쟁력 제고를 위한 업무협약을 체결하고 기념촬영을 하고 있다.[제주도민일보=최병근 기자]제주도와 한국철도공사가 제주특산품 판로확대와 관광산업의 경쟁력을 높이기 위해 손을 잡았다.제주도는 1일 제주도청에서 한국철도공사와 업무협약을 맺고 제주 특산품 판로를 확대하고 국내 관광산업의 경쟁력을 높이자고 다짐했다.제주도와 코레일은 이번 협약에 따라 제주특화 상품은 국내 관광열차의 디자인을 활용한 만큼 한국철도 기념품으로 활용될 예정이다. 또 KTX열차 내 판매와 전국 주요 철도역 200개 매장에 순차적으로 입점 될 예정이다.제주특산품은 도내에서는 중소기업지원센터가 운영하는 온라인 쇼핑몰 이제주몰(mall.ejeju.net), 제주특산품 전시판매장 3개소(본점, 성산점, 컨벤션점)에서 구입할 수 있다.또한 관광분야에서는 KTX와 여객선을 연계, 제주로 오는 항공좌석 공급의 대체·분산을 유도할 계획이다.한국철도공사는 이번 협약을 토대로 제주 생산제품의 국내·외 판로확대 뿐만 아니라 친환경 철도와 청정자원을 연계한 관광 상품을 개발할 예정이다.제주도는 도내 마케팅이 취약한 중소기업 가공품의 판로확대를 위해 단계적으로 향토자원 상품을 개발하고, 코레일의 유통 인프라를 적극 활용해 제주 생산제품의 판로확대에 힘쓸 계획이다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 상하이 세계관광박람회 참가 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 상하이 세계관광박람회 참가 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 상하이 세계관광박람회 참가 기자명 고병수 기자 입력 2015.05.06 11:04 수정 2015.05.06 11:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주특별자치도와 제주관광공사는 6일부터 오는 9일까지 중국 상하이시에서 개최되는 2015 상하이 세계관광박람회(WTF)에 참가한다고 밝혔다.도는 박람회를 통해 개별관광으로 제주관광 패러다임 전환 및 고부가가치 SIT(특수목적관광)관광객 유치를 위한 마케팅을 추진한다.또한 중국 화동지역 개별관광객 유치를 위해 해당지역 직항운항 업체 및 중국 최대 온라인 여행사인 Ctrip 등 주요 여행업계를 방문한다. 관계자는 "이번 박람회는 제주자유여행을 홍보 테마로 제주관광 홍보부스를 운영하며 무사증 제도 등 제주관광의 이점을 이용한 제주 SIT 상품 및 개별관광 목적지로의 제주 브랜드 가치를 홍보하고, 현지 여행업체 및 소비자를 대상으로 홍보 및 모객활동을 펼칠 계획"이라고 말했다.한편 이번 박람회는 상해시여유국 주최로 개최되는 박람회로 55개 국가, 550개 기관이 참가하고, 박람회 관람객이 4만명에 달하는 국제적인 규모의 박람회이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+    <t>김포공항 경유 제주도 관광객 ‘무비자’ :: 한국무역신문, 주간무역, 한국무역의 길잡이 한국무역신문 통합검색 무역뉴스열린무역정보 무역뉴스 열린무역정보 [PDF지면보기] 10.11 (화) 11 : 08 편집 홈 김포공항 경유 제주도 관광객 ‘무비자’ 2015.05.29 11:08 입력 주간무역 wtrade07@gmail.com 김포공항을 통해 입국 후 제주도로 향하는 관광객에 한해 무비자가 적용된다고 중국신문망이 보도했다.우리나라 법무부는 이달부터 김포공항을 경유해 제주도로 향하는 관광객에 한해 무비자 입국을 허용 중이다. 김포공항에 도착 후 서울 등 주변 지역에서 5일 동안 체류 가능하다.이에 따라 현재 환승 관광객에 무비자 혜택을 적용하는 공항은 인천, 김해, 청주, 양양, 무안, 대구국제공항에 이어 김포공항까지 모두 7개로 늘었다.법무부는 서울 도심과 가까운 김포공항을 무비자 입국이 가능한 공항으로 지정함으로써 더욱 많은 중국 관광객을 유치할 수 있을 것으로 기대하고 있다.한편 법무부는 외국 관광객의 편의를 위해 인터넷 비자업무를 시행할 계획인 것으로 알려졌다. 이럴 경우 외국 관광객들은 현지의 한국 대사관이나 영사관을 찾아가 비자를 신청하지 않고 인터넷으로 곧바로 비자를 신청할 수 있게 된다. 프린트 | 메일보내기 | 스크랩 | 트위터로보내기 | 페이스북으로보내기 기사에 대한 의견 (0개) 등록순|추천순|반대순 의견쓰기 아이디 비밀번호 운영원칙|내가쓴 의견보기 수은, 성동조선에 3000억원 단독 지원…무보는 채권단서 빠져朴대통령 "무인이동체, 신산업 창출 빅뱅 일으킬 것" 이전페이지로|위로 화제의 포토 농협, 제발연에 연구비 3억원 기탁 추천뉴스 뉴스종합 유럽 그린에너지 글로벌 기업, “한국 KOTRA, 시카고에서 11일부터 2주간 ‘코로나 덫에 걸린 면세점, 중국 보따리베트남, Z세대가 열광하는 e스포츠 시환경부 지정 '녹색기업'이 환경법 위반스타벅스, 고객 선불충전금 2503억원 EU, 미 인플레이션감축법 WTO 협정 위[박승찬의 차이나 포커스] (3) 중국 소[정병도 웰마크 사장의 글로벌 비즈니LS니꼬동제련, 'LS MnM'으로 새 출발 인기있는 기사 뉴스종합 [박승찬의 차이나 포커스] (3) 중국 소EU, 미 인플레이션감축법 WTO 협정 위아프리카 시장 관심 있는 기업 모여라.KH그룹, 알펜시아 리조트 헐값 인수 뒷스타벅스, 고객 선불충전금 2503억원 KH그룹, 알펜시아 리조트 헐값 인수 뒷급부상한 K-방산... 산업연구원, 올 방[정병도 웰마크 사장의 글로벌 비즈니LS니꼬동제련, 'LS MnM'으로 새 출발'태국 K-푸드 페어'에 태국인들 바글바 댓글TOP뉴스 뉴스종합 스타벅스, 고객 선불충전금 2503억원 환경부 지정 '녹색기업'이 환경법 위반베트남, Z세대가 열광하는 e스포츠 시코로나 덫에 걸린 면세점, 중국 보따리KOTRA, 시카고에서 11일부터 2주간 ‘ 메일보내기 김포공항 경유 제주도 관광객 ‘무비자’ 보내는분 보내는분 이메일 받는분 이메일 내용 보내기 취소 회사소개| 개인정보취급방침| 회원약관| 청소년보호정책(책임자 이지연)| 제휴 및 광고문의| 광고안내| 기사제보| 정기구독신청| 한국무역신문ㅣ발행처 : (주)한국무역신문사ㅣ등록번호: 서울 다07698호ㅣ등록일자: 2007. 04. 27ㅣ사업자번호 215-87-80252 [06164] 서울시 강남구 영동대로 513 코엑스 4층 427-1호ㅣ대표전화 : 02-6000-3124대표이사 겸 발행인: 김석경ㅣ편집인: 김보근ㅣEmail : wtrade07@gmail.comㅣ팩스 : 0303-3447-3119Copyright ⓒ 2007 Korea Trade News. All rights reserved.</t>
+  </si>
+  <si>
+    <t>KBS NEWS Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 본문 영역 요청하신 페이지를 찾을 수 없습니다. 홈으로 이전 페이지 고객센터 전화번호 : 02-781-1000 (오전 08:00~오후 06:00) 고객센터 이메일 : news@kbs.co.kr 오늘의 HOT클릭! 동영상 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>샘 오취리, "제주도 관광? 정답은 &lt;맨도롱 또똣&gt; 촬영!" 주메뉴 바로가기 본문 바로가기 맨도롱 또똣 샘 오취리, "제주도 관광? 정답은 &lt;맨도롱 또똣&gt; 촬영!" 맨도롱 또똣홈페이지 2015-05-21 16:50 “샘! 제주도에는 무슨 일이예요?”샘 오취리가 직접 밝히는 &lt;맨도롱 또똣&gt; 출연여부, 정답은 YES!21일(목) 샘 오취리가 자신의 인스타그램을 통해 MBC 새 수목미니시리즈 &lt;맨도롱 또똣&gt;에 출연한다는 소식을 전해 눈길을 모으고 있다.공개된 인스타그램 사진 속에는 &lt;맨도롱 또똣&gt; 여주인공 강소라와 함께 나란히 제주도 풍광을 배경으로 한 샘 오취리가 사이좋은 인증샷을 남겨 궁금증을 모으고 있다. 더불어 샘 오취리는 사진과 함께 “오늘 맨도롱 또똣 첫 등장합니다”라고 밝혀 과연 그의 깜짝 출연이 어디서 보일지 기대감을 높이고 있다. 예능 대세! 남다른 존재감을 드러내는 샘 오취리가 과연 &lt;맨도롱 또똣&gt;에 어떤 역할로 등장하게 될까? MBC 수목미니시리즈 &lt;맨도롱 또똣&gt;은 매주 수, 목 밤 10시에 방송된다.iMBC 편집팀 | 사진 샘 오취리 인스타그램 ※ 이 콘텐츠는 저작권법에 의하여 보호를 받는바, 무단 전재 복제, 배포등을 금합니다 #맨도롱 또똣 #샘 오취리</t>
+  </si>
+  <si>
+    <t>제주도.中 하이난성, 관광.인문교류 협력 강화 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도.中 하이난성, 관광.인문교류 협력 강화 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도.中 하이난성, 관광.인문교류 협력 강화 오미란 headlinejeju@headlinejeju.co.kr 승인 2015.05.22 09:44 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 원희룡 지사-허시칭 부성장, 제주포럼서 면담 원희룡 제주도지사와 중국 하이난 성 허시칭 부성장이 21일 제주포럼에서 인사를 나누고 있다.&lt;헤드라인제주&gt; 제주특별자치도와 중국 하이난 성(海南省)이 관광.인문교류 협력을 강화키로 했다. 제주도는 자매결연도시인 하이난 성 허시칭(何西慶) 부성장이 제주포럼 기간 제주를 방문해 원희룡 지사를 예방하고, 양 지역의 공동발전을 위해 관광.인문교류 협력을 강화해 나가기로 했다고 22일 밝혔다. 허 부성장은 원 지사와의 면담에서 "중국 하이난 성과 한국 제주도는 지리적 여건, 자연환경, 관광여건 등 비슷한 점이 많아 서로 배울 부분이 많이 있으므로 인문교류를 통해 서로 배우고 발전할 수 있기를 바란다"고 말했다. 제주포럼 세션발표에서는 "하이난은 제주도를 포함한 세계 여러 나라 섬 관광 발전 경험을 열심히 배웠으며, 중앙정부가 하이난 성을 중요하게 생각해 국제관광도시 발전계획을 수립, 재정적으로나 제도적으로 지원을 아끼지 않는다"고 밝혔다. 한편 제주도와 하이난성은 자매결연 20주년을 맞아 한.중 인문교류 테마도시 사업의 일환으로 양 지역 대표 국제행사인 제주포럼과 보아오포럼에 상호 초청방문 교류키로 했다. 이에 따라 원 지사는 오는 12월 하이난 성 대표축제인 환러제(歡樂節) 제주의 날 행사에 문화공연단과 함께 참석한다.&lt;헤드라인제주&gt; 중국 하이난 성 허시칭 부성장이 21일 제주포럼에서 '중국의 빼어난 열대섬 휴양지, 하이난 성'을 주제로 발표를 하고 있다.&lt;헤드라인제주&gt; &lt;오미란 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도-하이난성, 관광·인문교류 협력 강화 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도-하이난성, 관광·인문교류 협력 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도-하이난성, 관광·인문교류 협력 강화 기자명 김영하 기자 입력 2015.05.24 11:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 원희룡 제주도지사가 허시칭 하니난성 부성장과 인사를 하고 있다.[제주도민일보=김영하 기자] 제주도가 자매결연도시인 중국 하이난성(海南省)과 관광·인문 교류 협력을 강화하기로 했다.제주도는 하이난성 허시칭(何西慶) 부성장이 제주포럼 기간 중 제주를 방문해 원희룡 지사를 예방했다.이번 허시칭 부성장의 제주포럼 참석은 자매결연 20주년을 맞이한 2015년 한중 인문교류 테마도시 사업으로 양 지역 대표 국제행사인 제주포럼과 보아오포럼에 상호 초청방문 교류하기로 함에 따른 것이다.허 부성장은 원희룡 지사와의 면담에서 “중국 하이난성과 한국 제주도는 지리적 여건, 자연환경, 관광여건 등 비슷한 점이 많아 서로 배울 부분이 많이 있다”며 “인문교류를 통해 서로 배우고 발전할 수 있기를 바란다”고 말했다.그는 제주포럼에서 세션발표에서도 “하이난은 제주도를 포함한 세계 여러 나라 섬 관광 발전 경험을 열심히 배웠다”며 “중앙정부가 하이난 성을 중요하게 생각해 국제관광도시 발전계획을 수립해 재정적으로나 제도적으로 지원을 아끼지 않는다”고 밝혔다.원 지사는 “하이난 성 대표축제인 환러제(歡樂節·12월) 제주의 날 행사에 문화공연단과 함께 참석해 제주의 가치를 알리는 기회가 되도록 할 것”이라 강조했다.▲ 원희룡 제주도지사가 허시칭 하니난성 부성장과 악수를 하고 있다. 김영하 기자 yhkim9356@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>외국인 관광객 유치 순위, 5월 13일까지 제주도에 중국인 85만명 다녀갔다 - 뉴스인사이드 × 전체기사 연예 전체 인터뷰 기획 방송 가요 영화 스포츠 경제 전체 가상화폐 환율인사이드 주식종합 정치 사회 생활 전체 잡인사이드 미세먼지 날씨뉴스 공연정보 물가정보 유가정보 게임 English 中國語 포토 영상 2022-10-11 11:50 (화) 모바일웹 검색버튼 기사검색 검색 전체 연예 전체 방송 가요 영화 기획 스포츠 경제 정치 사회 라이프 인터뷰 GOLF GOLMATE 페이스북 네이버 포스트 네이버 블로그 카카오스토리 카카오채널 유튜브 이전 다음 외국인 관광객 유치 순위, 5월 13일까지 제주도에 중국인 85만명 다녀갔다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회 외국인 관광객 유치 순위, 5월 13일까지 제주도에 중국인 85만명 다녀갔다 승인 2015.05.21 11:05 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × ▲ 외국인 관광객 유치 순위 [스타서울TV 이현지 기자] 한국이 외국인 관광객 유치 순위 20위에 올랐다.외국인 관광객 유치 순위와 함께 우리나라를 찾는 외국인 관광객 비율이 눈길을 끌고 있다. 우리나라를 가장 많이 찾는 관광객은 중국인으로 해마다 그 비율이 늘어나고 있다.특히 중국인들이 많이 찾는 관광지인 제주도에는 5월까지 85만명의 중국인이 방문했다.제주도관광협회에 따르면 지난 13일 기준, 제주를 방문한 외국인 관광객은 100만3538명으로 지난해 같은 기간보다 22.4% 증가했다. 이번 기록은 지난해보다 18일 빠른 사상 최단 기간 성적이다.최근 4년간 외국인관광객 100만명 돌파일을 조사한 결과, 지난해에는 5월 31일, 2013년은 7월 11일, 2012년 8월 15일, 2011년은 12월 16일로 나타났다. 도관광협회는 "국제선 직항노선 증편 및 국제크루즈 입항 증가로 중국인 관광객을 중심으로 외국인 관광객이 지속 증가했다"고 밝혔다.올해 국적별 관광객 입도 현황을 보면 100만3538명 중 무려 84.9%인 85만명이 중국인으로 나타났다. 이어 일본(3.1%), 말레이시아(1.5%), 인도네시아(1.0%) 등의 순으로 조사됐다.외국인 관광객 유치 순위/사진=뉴시스[스타서울TV 보도자료 및 제보=sstvpress@naver.com 무단전재 및 재배포 금지] 모바일 보기 신문사소개 기사제보 광고문의 RSS 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 종로구 새문안로5길 13, 변호사회관빌딩 501-1호 대표전화 : 070-4639-1163 뉴스인사이드는 인터넷신문 위원회 윤리강령을 준수합니다. 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 종로구 새문안로5길 13, 변호사회관빌딩 501-1호 대표전화 : 070-4639-1163 팩스 : 02-6455-7740 청소년보호책임자 : 김윤현 제호 : 뉴스인사이드 등록번호 : 서울 아 00380 등록일 : 2007-06-04 발행일 : 2007-02-01 발행인 : 천태영 편집인 : 천태영 편집국장 : 홍준성 부사장 : 조병권 뉴스인사이드는 인터넷신문 위원회 윤리강령을 준수합니다. 뉴스인사이드의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright © 2022 뉴스인사이드. All rights reserved. mail to news@newsinside.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 33대 자문위원 위촉 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 11:41 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 제주도교육청-대학 간 교육 협력 제도화 조례 제정 ‘시동’ JDC, 제주도-첨단과기단지 투자기업 '파트너스데이' 제주도 중학교 과밀학급 29.8%...전국 2위 ‘콩나물 교실’ 여전 제주도, 민간일자리 창출 소상공인에 사회보험료 전액 지원 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 33대 자문위원 위촉 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회, 33대 자문위원 위촉 기자명 문준영 기자					(moonsoyo@jejusori.net) 입력 2015.05.21 11:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 지난 19일 열린 제33대 제주도관광협회 자문위원 위촉식. / 사진 제공=제주도관광협회 ⓒ 제주의소리 제주특별자치도관광협회(회장 김영진)는 지난 19일 제주웰컴센터 3층 대회의실에서 제33대 자문위원 14명을 위촉하고 본격적인 운영에 들어갔다.자문위원회 위원장에는 신명희망국민포럼 김동완 공동대표가 선출됐다. 이날 자문위원회에서는 위원들에 대한 위촉장 수여식을 시작으로 관광협회 중점추진사업 보고, 관광협회 발전방향에 대한 토론이 진행됐다. 제주종합비즈니스센터 건립, 제주황금버스 시티투어 운영, 제주대형여행사 설립 등 중점추진사업에 대해 집중 논의가 이뤄졌다.자문위원회는 제주도관광협회 4대 위원회 중 하나다. 사업계획 수립과 평가에 참여해 조언, 권고, 자문 역할을 맡는다.제주도관광협회는 주기적인 자문위원회 회의운영을 통해 다양한 의견을 수렴·반영할 계획이다.▲제주도관광협회 제33대 자문위원 명단문대림 전 제주도의회 의장김동완 신명희망국민포럼 공동대표(미래제주 회장)김용이 대국해저관광 회장신왕우 제주관광학회 회장손정미 제주국제컨벤션센터 대표이사오상훈 제주대 교수강창균 변호사(강창균법률사무소)문성종 제주한라대 교수강보식 제주관광대 교수김영진 제주국제대 교수김성도 전 제주도관광협회 본부장한정훈 회계사박호형 (사)한국청소년지도자 제주도연맹 회장한상훈 법무법인 양재 경영이사 문준영 기자 moonsoyo@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 마케팅 국장, 고승익씨 선임 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 제주도관광협회 마케팅 국장, 고승익씨 선임 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 제주도관광협회 마케팅 국장, 고승익씨 선임 기자정보, 기사등록일 입력 2015-05-18 15:38 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 아주경제 진순현 기자=제주도관광협회 마케팅국장에 학계 출신 고승익 전 제주관광학회장(사진)이 선임됐다. 제주도관광협회(회장 김영진)는 지난 3월 이사회에서는 조직 개편과 함께 회원지원국과 마케팅국 2국 체제로 사무본부를 전환하는 내용을 심의 의결한 결과, 마케팅국장을 외부에서 영입키로 해 고승익(57)씨를 최종 선임했다고 18일 밝혔다. 임기는 1년단위 계약직으로 실적에 따라 계약이 연장 가능하다. 신임 고승익 국장은 오현고와 제주대학교를 졸업, 경기대학교 대학원에서 경영학 석·박사를 취득했다. 제주대학교 강사, 연구원, 제주시 관광축제위원장, 제주관광대학교 조교수, 제주관광학회 회장 등을 역임했다 관련기사'네팔 대지진' UCLG ASPAC, 제주서 재해위험 준비제주, 장기 미착공·미준공 관광숙박…사업승인 "취소" #고승익 #관광 #마케팅 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4버거에 꽂힌 유통·식품업계 3세들 5원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 6세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 7숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>"관광도시 제주도, 디아일랜드마리나호텔 2차 노려"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 일반 관광도시 제주도, 디아일랜드마리나호텔 2차 노려 2015.05.18 14:00 전국 호텔분양이 급증하면서 투자자의 옥석 가리기가 더욱 어려워지고 있다. 지난해 세계적인 관광지인 제주도는 관광객 1,200만명을 돌파하고 제주도 부동산시장과 제주 수익형호텔, 수익형부동산투자에는 더욱 신중한 선택이 필요하다.또한 기준금리가 1%대로 낮아지면서 과거처럼 시세차익을 노리기 보다 안정적인 임대소득을 얻으려는 수요자가 크게 늘어나면서 소액투자 할 수 있는 수익형부동산 투자자들이 매년 10%이상 증가하는 추세로 제주도 부동산 시장이 활기를 띠고 있다.한편 디아일랜드호텔&amp;리조트그룹은 제주에 분양형호텔 중 최대규모(889실)로 제주4군데에 자체 네트워크호텔을 갖추고 있어 운영능력 검증된 호텔 전문그룹으로, 디아일랜드블루호텔(143실, 서귀포)이 지난2013년 오픈해 가동률이 90%를 넘어섰고, 현재 분양자 전원에게 매달 수익금을 꼬박꼬박 지급해 그 안전성이 입증되었다.디아일랜드 마리나호텔2차(215실, 성산일출봉)가 다음달(6월) 그랜드오픈을 앞두고 있고, 3차디아일랜드밸류호텔(357실, 제주시연동)이 내년9월 준공예정으로 공사가 한창 진행 중이다. 디아일랜드 마리나호텔은 389실 중 1차로 215실을 성황리에 분양완료하고 2차로 174실을 분양중인 데 조기마감이 예상된다.다음달 6월 1일 정식 개장하는 디아일랜드 마리나호텔&amp;리조트(성산일출봉)는 약 7천평 규모로 마리나 가든, 실내외 수영장, 연면적 1,200평의 부대시설에 500명이 동시에 식사할 수 있는 씨푸드 레스토랑, 500명이 세미나를 할 수 있는 대규모 연회장과 글램핑장, 야영장, 잔디정원, 면세점(예정), 성형외과, 피부과, 명품점 등 특급 호텔 이상 부럽지 않은 부대시설이 들어서며, 영구조망인 성산일출봉의 장관인 일출도 언제나 함께 볼 수 있다. 개장을 앞두고 현재 마리나1차 호텔 객실 예약을 받고 있으며, 인기리에 예약 마감 중에 있다. 또한 디아일랜드 마리나호텔&amp;리조트(389실)중 174실의 디아일랜드마리나2차를 현재 분양 중에 있다. 모델하우스는 강남 역삼동에 위치해 있다. 디아일랜드밸류호텔(357실, 제주시 연동)은 내년 9월 준공예정으로 공사가 한창이다.또한 전문적이고 체계적인 호텔식 운영을 통해 모닝콜, 세탁, 청소대행 등 각종 생활편의 서비스와 통역, 관공서 업무대행 등 첨단 비즈니스 서비스, 항공권 및 렌터카 예약대행 서비스 등 다양한 서비스도 마련된다.디아일랜드 마리나호텔은 분양자에게 다양한 혜택을 제공하는데 개인 및 가족, 비즈니스 별장으로 단기 또는 장기로 사용할 수 있다.계약금 10%, 중도금 60% 무이자, 잔금 30%(임대보증금)!디아일랜드 마리나의 경우 실투자금 1,700만원만 있으면 분양을 받을 수 있어 가격부담이 없고, 투자자들의 가장 큰 걱정거리인 ‘과연 월세가 잘 나올까?’ 하는 걱정거리도 전혀 없다.기존의 분양형호텔이 수익안심보장제를 들어 월세를 지급한다고는 하지만 진정한 임대차계약의 조건을 갖추고 걱정 없이 월세를 받으려면 반드시 운영사로부터 상당액의 보증금을 받아야 한다.또한 다음달(6월)이면 운영중인 호텔이 2곳으로 늘어나 착공도 하지 않고 분양중인 타 호텔과는 신뢰성이나 운영사 능력에서 확연한 차이가 있다.1채당 실투자금 1,700만원으로 보증금 5,500만원+월세67만원 임대차계약서 발행한다. 1,700만원 투자로 성산일출봉을 영구조망 할 수 있는 디아일랜드 마리나호텔 뿐만 아니라 디아일랜드 블루호텔(서귀포), 디아일랜드 밸류호텔(제주시)과 같은 디아일랜드 호텔그룹의 최고급 직영 호텔4곳을 매년 무료로 7일을 이용할 수 있고, 보증금 5천만원에 매달 약 67만원의 월세를 받을 수 있다.요즘 강원라마다호텔, 데이즈시티호텔, 강정라마다호텔, 골든튤립호텔, 윈스카이호텔, 코업시티호텔, 속초라마다호텔, 엠포리움호텔, 기흥엠스테이호텔, 성산라마다호텔 등 많은 분양형 호텔이 있지만 옥석을 꼼꼼히 가려야 한다.은행금리가 사상최저의 바닥을 찍고 있는 요즘, 마땅한 투자처를 찾지 못한 투자자들에게 최고의 수익안심보장 상품이 될 것으로 보이며 조기마감이 예상된다.디아일랜드마리나호텔2차 분양 문의 : 1577-0901온라인뉴스팀/onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>관광객 몰리는 제주도만 경제 살아나 - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 [Asia오전]美 긴축·러 미사일 공격…추락하는 증시 오상진♥김소영 4살 딸, 책 술술→5살 딸 둔 이지혜 "조급해지네" 민주당 "여가부 폐지 반대…국가보훈부·재외동포청 찬성" 농관원, 공공비축미곡 포대벼 매입 검사 실시 '고용지표 호전→금리 인상→증시 부진'…악순환 속 시장은 '허우적' "기업 보안지출은 증가일로, 견조한 성장매력", 파수 증권가 호평 한국타이어, 발달장애 특수학교 찾아 '숲' 조성 봉사 [영상] "삽시간에 쓸고 가"…베네수엘라 산사태로 90여명 사망·실종 용인시 '최대 5000만원 5년 무담보' 소상공인 프리미엄 대출 재개 모텔방서 숨진 5개월 영아…부모 장시간 방치 정황에 경찰수사 [Asia오전]美 긴축·러 미사일 공격…추락하는 증시 오상진♥김소영 4살 딸, 책 술술→5살 딸 둔 이지혜 "조급해지네" 민주당 "여가부 폐지 반대…국가보훈부·재외동포청 찬성" 농관원, 공공비축미곡 포대벼 매입 검사 실시 '고용지표 호전→금리 인상→증시 부진'…악순환 속 시장은 '허우적' "기업 보안지출은 증가일로, 견조한 성장매력", 파수 증권가 호평 한국타이어, 발달장애 특수학교 찾아 '숲' 조성 봉사 [영상] "삽시간에 쓸고 가"…베네수엘라 산사태로 90여명 사망·실종 용인시 '최대 5000만원 5년 무담보' 소상공인 프리미엄 대출 재개 모텔방서 숨진 5개월 영아…부모 장시간 방치 정황에 경찰수사 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 관광객 몰리는 제주도만 경제 살아나 sns공유 더보기 관광객 몰리는 제주도만 경제 살아나 머니투데이 세종=정진우 기자 기자 더보기 sns공유 더보기 2015.05.12 12:00 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 통계청, '2015년 1분기 지역경제동향'… 제주 생산·소비·고용 모든 지표 좋아 제주도와 충북, 부산 등 일부 지역은 올해 1분기 식료품과 선박 등의 호조로 광공업 생산이 증가한 것으로 조사됐다. 반면 서울과 인천, 경북은 자동차와 전자부품 등의 부진으로 감소했다. 소비(대형소매점판매)는 화장품과 음식료품 등 호조로 제주도와 충남은 증가했지만, 음식료품과 의복 등의 부진으로 전남과 대전 등 나머지 지역은 모두 감소했다. 통계청은 12일 이 같은 내용을 담은 '2015년 1분기 지역경제동향'을 발표했다. 통계청에 따르면 전국 광공업생산은 석유정제품 증가세에도 불구하고 자동차와 선박, 전자부품 등의 부진으로 전년동기대비 1% 감소했다. 제주(19.3%)와 충북(11.3%), 부산(7.9%) 등은 식료품과 선박 등의 호조로 증가했다. 하지만 인천(-6.5%)과 서울(-5.9%), 경북(-5.4%) 등은 자동차와 전자부품 등 부진으로 감소세를 보였다. 전국 대형소매점판매는 화장품 등 호조를 보였지만, 운동오락용품과 의복 등의 부진으로 전년동기대비 2.1% 감소했다. 제주(18%)와 충남(2.8%)은 화장품과 음식료품 등 호조로 증가한 반면 전남(-8.4%), 대전(-7.1%), 전북(-6.5%) 등 나머지 지역에선 음식료품과 의복 등 부진으로 모두 줄었다. 전국 백화점판매는 충북(9.7%), 인천(4.4%) 등은 증가했지만 서울(-8.7%)과 경남(-7.9%), 경기(-6%) 등은 감소해 전년동기대비 6% 감소했다. 고용은 전년동기대비 1.4% 증가했다. 전국 취업자 수는 제조업과 보건복지업 등의 고용이 호조를 보이면서 총 2527만명을 기록했다. 경남(-0.9%)과 울산(-0.7%) 등은 농림어업과 보건복지업 등의 부진으로 감소했지만 대전(4.0%)과 강원(3.6%), 경기·전북(3.2%) 등은 교육업과 사업지원업, 제조업, 음식숙박업 등 호조에 힘입어 증가세를 나타냈다. 이밖에 물가는 전국적으로 0%대 물가를 보이면서 저물가를 이어갔다. 대부분 지역에서 오름세가 둔화된 가운데 강원과 충남, 전남이 -0.2%를 기록하는 등 물가하락세를 보였다. 체감물가를 나타내는 생활물가(전국 -0.6%)도 서울과 인천을 제외한 모든 시도에서 하락했다. 전국 건설수주는 주택과 사무실 등 건축수주가 호조를 보이면서 전년동기대비 52.9% 증가했다. 충북(-45.6%)과 전남(-19.6%) 등은 감소한 반면 충남(202.7%)과 세종(191.5%), 대전(189.4%) 등은 주택과 기계설치 등의 수주 호조로 증가했다. 이외에도 국내인구이동은 세종(1만8517명)과 경기(1만6485명), 제주(3034명) 등은 순유입을 보였지만 서울(-1만6565명)과 대전(-5681명), 부산(5351명) 등은 순유출을 기록했다. 통계청 관계자는 "전국 수출은 석유정제품, 무선통신기기 부진으로 전년동기대비 2.9% 감소했다"며 "부산과 충북은 증가했지만, 경북과 울산 등은 석유정제품과 무선통신기기 등 부진으로 줄었다"고 말했다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% 정진우 econphoo@mt.co.kr 안녕하세요. 머니투데이 정진우 기자입니다. 기자의 다른기사 "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 원/달러 환율, 4거래일만에 1430원 재돌파 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 정책 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "스타벅스 바리스타, 하루 '5시간' 밖에 일못해…월수입 134만원" '버섯 든' 20대 몸짱남에 SNS 난리…'끼'가 다른 청년농부들 "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 IMF·금융위기 그리고 2022년…또 경상수지 '빨간불' 켜졌다 넌 누구냐?…신종 변이 'BF.7' 한국 상륙, 정체 파악 안돼 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 기온 10도 '뚝' 떨어지자 사망률 19% '쑥'…추울수록 무서운 질환 하필 독감 중 가장 센 놈이 왔다…"코로나 보다 더 무서워" 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 발란, 네고왕 '꼼수할인' 거짓 해명?…野 김성주, 공정위 조사 촉구 "GOS 때문에 '5만전자' 된 것 아니냐"...삼성전자 "아니다" 국가교육위원회 국감 17일로 확정…'이배용 청문회' 예고 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 정책 마켓 [지자체NOW]부산시, 관광객 위한 '동백전 카드' 출시…"5%할인 받으세요" 서울 침수피해 취약계층에 '친환경보일러' 무상 지원한다 소진공, 소상공인 온라인 시장 진출 지원 박차 …6500개사 돕는다 25년만에 7개월 연속 무역적자?...1~10일 수출, 올해 첫 20%대 급감 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 "남자로 보였는데…" 신봉선, 10세 연상 지상렬과 '썸' 결말은? "우울증, 술에 의지" 최강희 연예계 떠난 근황…고깃집 '알바' 츄, 오은영 충격 진단→단톡방 왕따 논란…"콘서트 공지 못받아" 공감 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 비공감 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? 내가 알던 안성기 맞아?…확 달라진 모습에 '건강 이상' 우려까지 "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 선넘은 해킹범…'뷔♥' 제니, 욕실서 찍은 셀카까지 유출 공감 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 비공감 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 이승윤, '자연인' 거액 출연료 왜주나 했더니 "썩은 생선도 먹어" 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 공감 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 비공감 정유라 6년만의 근황 "깡으로 버텼다…조민이 불쌍하다니" 눈물 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 공감 '16살' 정동원, 벌써 한강뷰 집서 자취…"부동산에 직접 전화" 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 the300 민주당 "여가부 폐지 반대…국가보훈부·재외동포청 찬성" theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 IZE 도경수는 '진정' 믿고 볼 만해! 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도, 무자격 가이드 합동단속 ... 관광무질서 사라질까 | 일요신문 본문바로가기 제1587호 뉴스보기 특종/단독 정치 경제 사회 연예 연예계 영화 방송 K-POP 스포츠 야구 축구 스포츠종합 스포츠 하이라이트 경마 문화 건강 여행/레저 전시/공연 생활경제 보도자료 웹세상 책동네 소식 전국 전국뉴스 경인본부 부산/경남 대구/경북 호남 충청본부 강원 제주 월드 해외스타 해외토픽 국제 일요eye 멀티미디어 포토뉴스 TV 연재 일요칼럼 일요캠페인 운세 지난 연재물 기획/연재 탐사보도 만화 완결만화 만화공모전 연재만화 끼 페스티벌 끼 페스티벌 뉴스 끼 페스티벌 영상 끼 페스티벌 포토 경마 서비스 바로가기 정기구독 당신의특종[제보] 로그인 회원가입 페이스북 트위터 유튜브 메인 메뉴 전체서비스 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 기사검색 검색 전체 검색 전체섹션 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 경마 기자 제주 제주도, 무자격 가이드 합동단속 ... 관광무질서 사라질까 온라인 기사 2015.05.22 09:23 공유하기 기사 공유하기닫기 페이스북 트위터 카카오스토리 카카오톡 링크 복사하기 글자 크기 바꾸기 글자 크기 변경닫기 가ty1 가ty2 가ty3 가ty4 기사 인쇄하기 [일요신문] 제주자치도는 무리한 쇼핑 강요 등으로 제주관광 이미지를 실추시키고 있는 무자격 가이드 근절을 위해 무자격 가이드 합동단속반을 운영한다고 22일 밝혔다. 제주도가 그동안 무자격 가이드 근절 등 건전 관광 질서 확립을 위해 지속적인 단속을 벌여이고 있는 가운데 지난 2월 중국인 관광객 인바운드 1위 여행사에 대해 등록을 취소하는 등 행정조치를 강화해 가고 있다. 도는 관광부서, 자치경찰, 관광협회 등 합동단속반을 편성, 단속 실효성을 높이기 위해 수시로 공항, 항만, 주요 관광지 등을 중심으로 무자격 가이드 고용행위, 무등록 여행알선 행위 등을 집중 단속할 방침이다. 도 관계자는 “합동단속반 운영 결과 법령위반 사항이 적발될 경우 이에 상응하는 행정제재 조치를 취함으로써 제주관광에 대한 이미지를 제고하고 무자격 가이드로 인한 관광 폐해를 극복해 나갈 것”이라고 밝혔다. 현성식 기자 ilyo99@ilyo.,co.kr ▶ 저작권자© 일요신문 무단전재 및 수집, 재배포금지 ▶ 일요신문i는 한국기자협회, 인터넷신문위원회, 일요신문 윤리강령을 준수하고 있습니다. 제주 많이 본 뉴스 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 온라인 기사 ( 2021.06.21 15:50 ) JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 온라인 기사 ( 2021.06.17 18:53 ) 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 온라인 기사 ( 2021.06.21 15:34 ) 제주 기사 더보기 많이 본 뉴스 1 '줄 서는 식당' 류진, 압도적 비주얼과 맛에 푹 빠져 폭풍 먹방 2 '최강야구' 독립리그 최강팀 성남 맥파이스와 대결, 이홍구 제자들 찾아 3 무비자 일본여행 앞두고 예약 ’500%’ 폭증…백신 3차례 맞으면 코로나 검사도 면제 4 '가요무대' 최진희, 박재란, 김충훈, 박혜신, 박건, 윤향기, 전유진, 임창제, 이정옥, 임주리, 류지광, 조정민, 더블레스, 이은하 출연 5 '톡파원 25시' 소유, 아이즈원 출신 이채원과 노르웨이 오슬로 여행 떠나 6 '오은영 리포트 결혼지옥' 외도로 상처받은 노부부 출연 "충격 커" 7 '동상이몽2' 오상진, 아내 김소영 폭풍 내조 속내 "한량처럼 살고파" 8 '개는 훌륭하다' 사람 무서워하는 겁쟁이 듀오, 이경규 만나자마자 돌변 썸타임즈 무서운 중2가 온다! 여자 육상 단거리 샛별 배윤진 ‘최강야구’ 윤준호 포수왕국 두산행 소감은? 월드컵 갈 태극전사 누구? 대한민국 vs 코스타리카 A매치 입중계 일요신문U “한국 골프의 미래” 일요신문-초등연맹회장배 현장 속으로… 풍자 전문가가 윤석열 그림 들고 전국투어 하는 까닭 “파업 노동자 손배소는 노동3권 억압 목적…노란봉투법 제정해야” 스타채널 디 오리지널 필로폰 혐의 돈스파이크, 연예계 마약 수사 트리거 되나 세계 패션인 축제 '파리 패션위크' 수놓은 K팝 스타들 '해트트릭' 손흥민 국대 평가전 앞두고 밝은 표정으로 귀국 제주 많이 본 뉴스 1 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 2 JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 3 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 4 도민사회 분열 조장...오영훈, 송재호, 위성곤의원 사퇴 촉구 5 제주도경제통상진흥원 미국 바이어와 MOU 체결.수출상담회 일요 eye전문가 칼럼 아트 스펙트럼 ‘문화도시’란 자신만의 이야기를 갖춘 도시 하정훈의 육아톡톡 '아이 발달' 위해 부모가 뭘 해야 할까요? 일요신문 신고센터 청소년유해게시물 신고 독자 고충처리 기사제보 띠별 운세 별자리운세 만화 지면 보기 제1587호 발행일 : 2022년 10월 19일 제1586호 발행일 : 2022년 10월 12일 제1585호 발행일 : 2022년 10월 5일 제1584호 발행일 : 2022년 9월 28일 제1583호 발행일 : 2022년 9월 21일 제1582호 발행일 : 2022년 9월 14일 제1581호 발행일 : 2022년 9월 7일 제1580호 발행일 : 2022년 8월 31일 제1579호 발행일 : 2022년 8월 24일 제1578호 발행일 : 2022년 8월 17일 신문 PDF 보기 신문 모아보기 회사소개 개인정보취급방침 이용약관 이메일주소무단수집거부 청소년보호정책 정기구독신청 독자투고 기사제보 청소년유해게시물 신고 독자 고충처리 정정보도 인터넷신문위원회 ㈜일요신문사 서울특별시 용산구 만리재로 192 사업자번호: 106-81-48524 TEL: 02-2198-1515 FAX: 02-738-4675 E-mail : master@ilyo.co.kr 인터넷신문사업등록번호 : 서울, 아04146 인터넷신문사업등록일 : 2016년 8월 29일 일요신문i 발행인/편집인 : 김원양 청소년보호책임자 : 강태선 Copyright(c) 2014 일요신문 All rights reserved. 2022년 10월 11일 (화) 일요신문의 모든 컨텐츠는 저작권법 보호를 받으며, 무단복제 및 복사 배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>제주도, 우수관광사업체 지정 공모 | 일요신문 본문바로가기 제1587호 뉴스보기 특종/단독 정치 경제 사회 연예 연예계 영화 방송 K-POP 스포츠 야구 축구 스포츠종합 스포츠 하이라이트 경마 문화 건강 여행/레저 전시/공연 생활경제 보도자료 웹세상 책동네 소식 전국 전국뉴스 경인본부 부산/경남 대구/경북 호남 충청본부 강원 제주 월드 해외스타 해외토픽 국제 일요eye 멀티미디어 포토뉴스 TV 연재 일요칼럼 일요캠페인 운세 지난 연재물 기획/연재 탐사보도 만화 완결만화 만화공모전 연재만화 끼 페스티벌 끼 페스티벌 뉴스 끼 페스티벌 영상 끼 페스티벌 포토 경마 서비스 바로가기 정기구독 당신의특종[제보] 로그인 회원가입 페이스북 트위터 유튜브 메인 메뉴 전체서비스 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 기사검색 검색 전체 검색 전체섹션 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 경마 기자 제주 제주도, 우수관광사업체 지정 공모 온라인 기사 2015.05.15 12:25 공유하기 기사 공유하기닫기 페이스북 트위터 카카오스토리 카카오톡 링크 복사하기 글자 크기 바꾸기 글자 크기 변경닫기 가ty1 가ty2 가ty3 가ty4 기사 인쇄하기 [일요신문] 제주자치도는 도내 관광사업체의 질적 성장을 도모하기 위해 내달 1일까지 우수관광사업체를 공모한다고 15일 밝혔다. 공모대상은 제주자치도에 본점을 둔 업체로 영업신고(리모델링) 후 1년 이상 된 음식점, 숙박업소, 교통업체, 관광지, 여행사 등 5개 분야가 대상이다. 종전 우수관광사업체로 지정돼 기정기간 2년이 도래한 사업체의 경우 재지정을 받아야 한다. 업체 선정은 전문가로 구성된 현장평가위원들의 사업체 현장평가와 우수관광사업체 평정위원회의 심의를 거쳐 우수관광사업체로 지정되며 시설 및 환경, 서비스, 요금, 위생상태, 안전관리, 지역사회 공헌도 등을 종합적으로 평가한다. 지정된 업체는 도지사 우수관광사업체 지정서 및 인증패, 홍보지원금(50만원)이 지급된다. 지정기간은 2년이며 도 관광정보시스템 및 유관기관 홈페이지, 각종 홍보물을 통한 홍보 인센티브 혜택이 주어진다. 현성식 기자 ilyo99@ilyo.co.kr ▶ 저작권자© 일요신문 무단전재 및 수집, 재배포금지 ▶ 일요신문i는 한국기자협회, 인터넷신문위원회, 일요신문 윤리강령을 준수하고 있습니다. 제주 많이 본 뉴스 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 온라인 기사 ( 2021.06.21 15:50 ) JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 온라인 기사 ( 2021.06.17 18:53 ) 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 온라인 기사 ( 2021.06.21 15:34 ) 제주 기사 더보기 많이 본 뉴스 1 '줄 서는 식당' 류진, 압도적 비주얼과 맛에 푹 빠져 폭풍 먹방 2 '최강야구' 독립리그 최강팀 성남 맥파이스와 대결, 이홍구 제자들 찾아 3 무비자 일본여행 앞두고 예약 ’500%’ 폭증…백신 3차례 맞으면 코로나 검사도 면제 4 '가요무대' 최진희, 박재란, 김충훈, 박혜신, 박건, 윤향기, 전유진, 임창제, 이정옥, 임주리, 류지광, 조정민, 더블레스, 이은하 출연 5 '톡파원 25시' 소유, 아이즈원 출신 이채원과 노르웨이 오슬로 여행 떠나 6 '오은영 리포트 결혼지옥' 외도로 상처받은 노부부 출연 "충격 커" 7 '동상이몽2' 오상진, 아내 김소영 폭풍 내조 속내 "한량처럼 살고파" 8 '개는 훌륭하다' 사람 무서워하는 겁쟁이 듀오, 이경규 만나자마자 돌변 썸타임즈 무서운 중2가 온다! 여자 육상 단거리 샛별 배윤진 ‘최강야구’ 윤준호 포수왕국 두산행 소감은? 월드컵 갈 태극전사 누구? 대한민국 vs 코스타리카 A매치 입중계 일요신문U “한국 골프의 미래” 일요신문-초등연맹회장배 현장 속으로… 풍자 전문가가 윤석열 그림 들고 전국투어 하는 까닭 “파업 노동자 손배소는 노동3권 억압 목적…노란봉투법 제정해야” 스타채널 디 오리지널 필로폰 혐의 돈스파이크, 연예계 마약 수사 트리거 되나 세계 패션인 축제 '파리 패션위크' 수놓은 K팝 스타들 '해트트릭' 손흥민 국대 평가전 앞두고 밝은 표정으로 귀국 제주 많이 본 뉴스 1 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 2 JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 3 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 4 도민사회 분열 조장...오영훈, 송재호, 위성곤의원 사퇴 촉구 5 제주도경제통상진흥원 미국 바이어와 MOU 체결.수출상담회 일요 eye전문가 칼럼 아트 스펙트럼 ‘문화도시’란 자신만의 이야기를 갖춘 도시 하정훈의 육아톡톡 '아이 발달' 위해 부모가 뭘 해야 할까요? 일요신문 신고센터 청소년유해게시물 신고 독자 고충처리 기사제보 띠별 운세 별자리운세 만화 지면 보기 제1587호 발행일 : 2022년 10월 19일 제1586호 발행일 : 2022년 10월 12일 제1585호 발행일 : 2022년 10월 5일 제1584호 발행일 : 2022년 9월 28일 제1583호 발행일 : 2022년 9월 21일 제1582호 발행일 : 2022년 9월 14일 제1581호 발행일 : 2022년 9월 7일 제1580호 발행일 : 2022년 8월 31일 제1579호 발행일 : 2022년 8월 24일 제1578호 발행일 : 2022년 8월 17일 신문 PDF 보기 신문 모아보기 회사소개 개인정보취급방침 이용약관 이메일주소무단수집거부 청소년보호정책 정기구독신청 독자투고 기사제보 청소년유해게시물 신고 독자 고충처리 정정보도 인터넷신문위원회 ㈜일요신문사 서울특별시 용산구 만리재로 192 사업자번호: 106-81-48524 TEL: 02-2198-1515 FAX: 02-738-4675 E-mail : master@ilyo.co.kr 인터넷신문사업등록번호 : 서울, 아04146 인터넷신문사업등록일 : 2016년 8월 29일 일요신문i 발행인/편집인 : 김원양 청소년보호책임자 : 강태선 Copyright(c) 2014 일요신문 All rights reserved. 2022년 10월 11일 (화) 일요신문의 모든 컨텐츠는 저작권법 보호를 받으며, 무단복제 및 복사 배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 33대 자문위원회 본격 활동 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 33대 자문위원회 본격 활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회 33대 자문위원회 본격 활동 기자명 김영하 기자 입력 2015.05.20 11:47 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도민일보=김영하 기자] 제주도관광협회(회장 김영진)가 지난 19일 제주웰컴센터 3층 대회의실에서 제33대 자문위원 14명을 위촉하고 본격적인 운영에 돌입했다고 20일 밝혔다.이날 자문위원회에서는 위원들에 대한 위촉장 수여식을 시작으로 관광협회 일반현황 및 중점추진사업 보고, 자문위원회 위원장 선출, 관광협회 발전방향에 대한 토론을 진행했다.자문위원회 위원장에는 신명희망국민포럼 김동완 공동대표가 선출됐다.자문위원회는 이날 제주종합비즈니스센터 건립, 제주황금버스 시티투어 운영, 제주대형여행사 설립 등 중점추진사업에 대해 논의했다.자문위원회는 도관광협회 4대 위원회 중 하나로서 사업계획 수립 및 평가에 참여해 조언·권고 및 자문활동을 통해 도관광협회와 제주관광산업의 성장·발전에 기여할 예정이다.도관광협회에서는 주기적인 자문위원회 회의운영을 통해 다양한 의견을 수렴·반영해 도내 관광사업체들의 경영환경 개선을 제고해 나갈 계획이다.한편 제33대 자문위원에는 문대림 제주도의회 전 의장, 김동완 신명희망국림포럼 공동대표, 김용이 대국해저관광 회장, 신왕우 제주관광학회 회장, 손정미 제주국제컨벤션센터 대표, 오상훈 제주대 교수, 강창균 변호사, 문성종 제주한라대 교수, 강보식 제주관광대 교수, 김영진 제주국제대 교수, 김성도 제주도관광협회 전 본부장, 한정훈 회계사, 박호형 한국청소년지도자 제주도연맹 회장, 한상훈 법무법인 양재 경영이사 등이 위촉됐다. 김영하 기자 yhkim9356@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 푸른 밤 100% 즐기기...최고의 야간관광코스는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 푸른 밤 100% 즐기기...최고의 야간관광코스는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 푸른 밤 100% 즐기기...최고의 야간관광코스는? 신동원 headlinejeju@headlinejeju.co.kr 승인 2015.05.12 11:57 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사, 야간관광코스 공모전 수상작 발표 사라봉에서 바라보는 제주도.&lt;헤드라인제주&gt; 제주특별자치도와 제주관광공사(사장 최갑열)는 지난 4월 6일부터 25일까지 20일간 진행된 '제주에서 즐기는 특별한 밤' 제주 야간관광코스 추천 공모전의 수상작을 선정하고, 그 결과를 12일 발표했다. 이번 제주 야간관광코스 추천 공모전은 전국에서 총 60건이 접수됐으며, 참가자가 직접 체험한 추천코스의 접근성, 파급력, 독창성, 흥미성의 4가지 평가기준에 따라 외부전문가 5인의 평가를 거쳐 최종 수상작 총 16편이 선정됐다. 대상 수상작 추천코스로는 '서귀포 아랑조을거리→매일올레시장→이중섭거리→유토피아로(자구리 해안)'가 선정됐다. 이 코스는 서귀포 지역의 특색을 살린 추천 코스로서, 방문객의 이동경로가 쉽고 먹거리, 볼거리, 즐길거리가 내포된 구간으로 관광객들에게 문화예술체험과 각종 편의제공 및 관광객 유입을 통한 지역경제 활성화 도모에 적합하다는 심사평이 있었다. 최우수상 수상작으로 ▲두멩이골목→동문시장→국수문화거리→난타공연관람→별빛누리공원 ▲사라봉→탑동광장→용연다리→용두암→어영마을→도두봉 등 2편의 응모작이 선정됐다. 우수작으로는 ▲'B동 301호' 인디전문 펍→'겟스페이스' 라이브클럽→'블루힐' 어쿠스틱공연 ▲서귀포 매일올레시장→칠십리공원→작가의 산책길→아랑조을거리 ▲근산오름→걸매생태공원→풍경이 있는 오솔길→천지연 폭포→로즈마린 등 3편이 선정됐으며, 이외에도 응모작 10편이 장려상 수상작으로 선정됐다. 제주관광공사 관계자는 "이번 공모전을 통해 앞으로 숨겨져 왔던 제주의 특별한 야간명소를 발굴해 제주에서 즐길 수 있는 다양한 야간관광 코스를 국내외 관광객들에게 홍보 할 수 있게 됐다"며, "채택된 추천코스를 활용해 제주를 찾는 관광객들의 야간활동과 관광소비를 유도하기 위한 야간관광 지도를 제작,보급할 예정"이라고 밝혔다. 이와 함꼐 "제주도내 야간 관광명소에 대한 홍보 활성화를 위해, 제주도내 야간명소 체험 SNS 이벤트를 지속적으로 개최할 것"이라고 말했다. 제주 야간관광코스 추천 공모전 결과 등 자세한 사항은 제주관광공사 홈페이지(www.ijto.or.kr)를 통해 확인할 수 있다. &lt;헤드라인제주&gt; 제주항 산지등대.&lt;헤드라인제주&gt; 중문 달빛걷기 체험.&lt;헤드라인제주&gt; 유토피아로 '작가의 산책길'.&lt;헤드라인제주&gt; 산지천.&lt;헤드라인제주&gt; 제주 동문 재래시장.&lt;헤드라인제주&gt; 서귀포 매일올레시장.&lt;헤드라인제주&gt; 제주 서문 공설시장.&lt;헤드라인제주&gt; &lt;신동원 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 장기 미착공·공사중단 관광숙박업 27곳 정비 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 장기 미착공·공사중단 관광숙박업 27곳 정비 (제주=뉴스1) 현봉철 기자					| 2015-05-17 14:38 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 장기간 착공하지 않거나 공사가 중단된 제주지역 관광숙박업 시설이 정비된다.    제주특별자치도는 관광진흥법 시행령에 따라 공사에 착수하지 않거나 착공 후 장기간 준공되지 않은 관광숙박업에 대한 사업계획 승인을 취소하겠다고 17일 밝혔다.    관광진흥법 시행령 제32조는 관광숙박업 사업계획을 승인받은 후 2년 이내 착공하지 않거나 착공 후 5년 이내 준공하지 못하는 경우 승인을 취소할 수 있도록 규정하고 있다.    이번 취소 대상 사업장은 기한 내 착공하지 않은 12곳(701실)과 공사 중단 등으로 장기간 미준공된 15곳(1446실) 등 모두 27곳(2147실)이다.    제주도는 이들 사업장에 대해 현장조사를 완료했으며, 상반기 내 의견 청취 및 청문절차를 거쳐 착공 의사가 없거나 공사 완료가 불가능하다고 판단되는 경우 사업계획 승인을 취소할 계획이다.    특히 ‘관광숙박시설 확충을 위한 특별법’에 따라 주차장 설치기준 등을 완화받고 기간 내에 공사를 착수하지 않은 사업장에 대해서는 관련법에 따라 곧바로 사업계획 승인을 취소해 나갈 방침이다. hbc@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 김혜자, 김용건에 "아기 잘 자라?"…김수미 "김용건 딱 닮아" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 4월 관광객 사상 최고 - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-11 11:11 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 제주도, 4월 관광객 사상 최고 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 생활경제 여행레저 제주도, 4월 관광객 사상 최고 조진수 기자 승인 2015.05.03 17:11 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [이뉴스투데이 조진수 기자] 제주도관광협회가 지난달 제주도를 방문한 관광객 수가 사상 최고치를 경신했다고 3일 밝혔다.제주도관광협회에 따르면 제주를 찾은 내외국인 관광객 수를 월별로 조사한 결과 지난 4월 관광객 수는 124만9091명(내국인 92만9434, 외국인 31만9657명)으로 종전 최고치인 지난해 8월 관광객 124만7474명(내국인 76만9201명, 외국인 47만8273명)기록을 넘어섰다 이는 지난해 같은 기간 관광객 수 113만2542명을 10.3%나 넘어선 기록이다. 도관광협회는 국내선 항공좌석 확충 및 선박 증편운항 등 교통편 개선 등으로 내국인 관광객이 크게 늘고 국제선 직항노선 증편 및 국제크루즈 입항에 따른 중국 등 동남아 관광객들의 지속적인 증가에 힘입어 외국인관광객이 증가하면서 최고치 기록을 달성한 것으로 분석 됐다. 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 조진수 기자 cho839@enewstoday.co.kr 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 AI가 여는 100세 건강, 한림원탁토론회에서 듣는다 AI가 여는 100세 건강, 한림원탁토론회에서 듣는다 신한카드, 오는 23일까지 ‘더프리뷰 아트위크’ 신한카드, 오는 23일까지 ‘더프리뷰 아트위크’ BYC, 2022년형 보온의류 출시 BYC, 2022년형 보온의류 출시 파수 ‘랩소디’, 문서중앙화 대체 나서다 파수 ‘랩소디’, 문서중앙화 대체 나서다 충남도 남부민원지원센터 본격 운영 충남도 남부민원지원센터 본격 운영 국내최대요리경연 'NS쿡페스트 익산' 막바지 점검돌입 국내최대요리경연 'NS쿡페스트 익산' 막바지 점검돌입 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1김정은, 尹 ‘담대한 구상’ 일축…핵실험 강행 예고 2‘타다 금지법’ 뒤집은 국토부…“타다조차 외면” 3‘킹달러’ 직격탄…철강·해운업계 비상 4방탄소년단 부산 콘서트 특수에 숙박·유통업계도 ‘방긋’ 5[알쓸금융] 왜 1개월 만기 적금은 없을까? 6반도체 생태계 강화 나선 삼성·SK하이닉스…중소 지원해 자생력 키운다 최신뉴스 1AI가 여는 100세 건강, 한림원탁토론회에서 듣는다 2신한카드, 오는 23일까지 ‘더프리뷰 아트위크’ 3BYC, 2022년형 보온의류 출시 4파수 ‘랩소디’, 문서중앙화 대체 나서다 5충남도 남부민원지원센터 본격 운영 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 마을여행 네트워크 시범마을 선정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 마을여행 네트워크 시범마을 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 마을여행 네트워크 시범마을 선정 기자명 고나연 기자 입력 2015.05.08 16:22 수정 2015.05.08 16:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도관광협회는 7일 제주설문대여성문화센터 2층 다목적실에서 농산어촌 기반의 1‧2‧3차 산업 융복합 관광상품을 개발하고 홍보마케팅 추진을 위해 업계, 언론, 행정 등으로 구성된 '제주마을여행 지원 네트워크' 제3차 회의를 개최했다고 8일 밝혔다.회의에 앞서 도내 농어촌체험휴양마을, 녹색농촌체험마을, 전통테마마을, 어촌체험마을로 지정된 마을을 대상으로 1‧2차 현지조사를 실시했고, 심층인터뷰를 통한 사업추진의지 및 마을자원의 관광상품화 가능성을 평가하는 등의 내용을 바탕으로 심의한 결과 명도암참살이체험마을, 낙천아홉굿의자마을, 예래생태마을(하예어촌체험마을)이 시범마을로 최종 선정됐다.이날 회의는 마을과 전문가간 유기적 협력체계를 구축하기 위한 방안을 논의하고 마을별 관광상품을 개발하기 위한 아이디어를 공유하는 시간을 가졌다. 또한 마을별 스토리텔링 구축에 대해 다른 여행상품 및 콘텐츠에 파급효과를 가져올 수 있는 새로운 시각의 필요성, 외부로부터의 접근을 통한 스토리 발굴이 필요하다는 입장을 내놨다.관계자는 "이번 회의에서 최종 선정된 3개 마을은 우선 제주마을여행 지원 네트워크 위원으로 위촉받고 지속 네트워크 구축으로 마을별 관광상품 개발에 공동으로 참여하게 된다"고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 날로 늘어…4월 역대 최다 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도 관광객 날로 늘어…4월 역대 최다 입력 : 2015-05-03 15:22:57 수정 : 2015-05-03 15:22:57 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 제주 4월 관광객 124만9091명 지난달 제주를 찾는 관광객이 크게 늘면서 역대 최다 기록을 갈아치웠다.제주도관광협회는 지난달 제주를 찾은 관광객은 124만9091명으로, 종전 월 기준으로 최다 기록을 세웠던 지난해 8월의 124만7474명보다 1617명(0.1%) 늘었다고 3일 발표했다.지난달 제주 관광객은 내국인이 92만9434명, 외국인이 31만9657명으로 내국인 관광객이 더 많았다.또한 노동절 연휴 첫 날인 지난 1일 제주를 찾은 관광객은 5만3215명으로 하루 관광객 최다 기록을 세웠다. 이전까지 하루 최대 관광객 기록은 지난해 광복절로 모두 5만2468명의 관광객이 제주를 찾은 바 있다.김슬기 기자 ssg14@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20150503001532 0101070800000 0 2015-05-03 15:22:57 2015-05-03 15:22:57 0 제주도 관광객 날로 늘어…4월 역대 최다 세계닷컴 김슬기 0028f8cc-c883-4815-9315-2c6633fff652 ssg14@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도·코레일 함께 관광산업 경쟁력 높인다 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도·코레일 함께 관광산업 경쟁력 높인다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도·코레일 함께 관광산업 경쟁력 높인다 기자명 최병근 기자 입력 2015.05.01 14:13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 특산품 판로 확대·여객선 연계 항공기 공급 분산 유도 ▲ 제주도와 한국철도공사가 1일 제주도청에서 제주특산품의 판로확대와 국내 관광산업의 경쟁력 제고를 위한 업무협약을 체결하고 기념촬영을 하고 있다.[제주도민일보=최병근 기자]제주도와 한국철도공사가 제주특산품 판로확대와 관광산업의 경쟁력을 높이기 위해 손을 잡았다.제주도는 1일 제주도청에서 한국철도공사와 업무협약을 맺고 제주 특산품 판로를 확대하고 국내 관광산업의 경쟁력을 높이자고 다짐했다.제주도와 코레일은 이번 협약에 따라 제주특화 상품은 국내 관광열차의 디자인을 활용한 만큼 한국철도 기념품으로 활용될 예정이다. 또 KTX열차 내 판매와 전국 주요 철도역 200개 매장에 순차적으로 입점 될 예정이다.제주특산품은 도내에서는 중소기업지원센터가 운영하는 온라인 쇼핑몰 이제주몰(mall.ejeju.net), 제주특산품 전시판매장 3개소(본점, 성산점, 컨벤션점)에서 구입할 수 있다.또한 관광분야에서는 KTX와 여객선을 연계, 제주로 오는 항공좌석 공급의 대체·분산을 유도할 계획이다.한국철도공사는 이번 협약을 토대로 제주 생산제품의 국내·외 판로확대 뿐만 아니라 친환경 철도와 청정자원을 연계한 관광 상품을 개발할 예정이다.제주도는 도내 마케팅이 취약한 중소기업 가공품의 판로확대를 위해 단계적으로 향토자원 상품을 개발하고, 코레일의 유통 인프라를 적극 활용해 제주 생산제품의 판로확대에 힘쓸 계획이다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
   </si>
   <si>
     <t>제주도 한달 관광객 수 최고 기록 경신 한국일보 제주도 한달 관광객 수 최고 기록 경신 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 제주도 한달 관광객 수 최고 기록 경신 입력 2015.05.05 15:34 좋아요 0 0 0 댓글달기 0 제주도를 찾은 한달 간 국내외 관광객 수가 사상 최고 기록을 경신했다. 5일 제주도 관광협회에 따르면 지난달 제주도를 찾은 관광객은 124만 9,091명으로 종전 월별 최고치인 지난해 8월 124만7,474명 보다 0.1% 증가했다. 지난해 4월(113만 2,542명)과 비교하면 10.3%나 증가했다. 지난해 4월 세월호 참사 이후 인천- 제주 뱃길이 끊긴데다 안전상의 문제로 수학여행단 등의 발길이 주춤했지만, 올해 4월에는 내국인은 10만명(12.2%), 외국인은 1만5,000명(5.1%)이 각각 증가했다. 이 기간 국내선 항공권은 117만2,000여석으로 전월대비 6.7% 증가했으며, 여객선 및 국제선 항공기를이용한 관광객은 61만7,900명으로 전월대비 19.9% 늘었다. 크루즈선 입항은 26회로 지난해 같은달 23회보다 3회 증가했다. 크루즈 관광객은 5만 4,412명이다. 사정이 이렇다 보니 지난달 28일 최단기간 관광객 400만명을 돌파했다. 제주관광협회 관계자는“중국 등 동남아 관광객 증가와 국내 관공객에게 교통편의 제공이 최단기간 400만평 돌파를 기록한 것 같다”고 말했다. 박경우기자 gwpark@hk.co.kr 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 제주도 한달 관광객 수 최고 기록 경신 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
   </si>
   <si>
-    <t>관광객 유치 1등 제주도에 데이즈호텔 3차 분양 시작 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 관광객 유치 1등 제주도에 데이즈호텔 3차 분양 시작 인터넷마케팅팀 입력: 2015-05-11 14:22 제주도는 세계에서 유일하게 한 지역에 세계자연유산이 3개를 보유한 지역으로 환경적 자산가치를 전 세계적으로 인정받은 청정관광지구이다. 따라서 매년 관광객이 증가하고 있다. 특히 그중에서도 중국인 관광객들이 크게 증가 하고 있다. 이러한 추세에 윈덤그룹은 중국에서 125개의 호텔을 운영하는 노하우를 살려 중국인들에게 익숙한 호텔이라는 데이즈를 내세워 중국인 관광객을 유치할 예정이다. 중국인 관광객뿐만 아니라 많은 국내,외 관광객들이 많이 찾는 제주도지만 관광객수요에 비해 수용할 객실이 턱없이 부족한 실정. 이러한 문제를 제주데이즈호텔의 1차, 2차 분양 완료에 이어 3차인 데이즈호텔 제주시티가 해결해 줄 것으로 내다보고 있다. 데이즈호텔은 전 세계 약 70개국에서 7380여개의 호텔을 운영하고 있는 윈덤그룹의 대표적인 브랜드로, 국내 약 50여개의 호텔을 컨설팅 한 노하우를 지닌 전문운영사인 산하HM과 함께 운영한다. 데이즈호텔 제주시티는 지하 2층에서 시작하여 지상 10으로 총 12층으로 구성되어 있다. 관광객을 위한 편의시설로 단체 관광객을 위한 관광버스 6대를 동시주차 할 수 있는 주차장도 마련되어 있으며, 레스토랑, 휘트니스센터 등 다양한 부대시설까지 준비되어 있다. 또한 투숙객들이 제주도 자연경관을 한눈에 볼 수 있도록 옥상에는 하늘공원이 있다. 이러한 데이즈호텔 제주시티 투자를 통해 분양을 받으면 연 16% 확정수익 보장과 이에 따른 보증서가 발급되며, 계약금 10% 중도금 전액이 무이자이다. 또한 오피스텔처럼 개별 등기 분양이 가능하고 계약금 10%에 대한 연 4.55% 이자 지급을 2년 동안 보장한다고 데이즈호텔 측은 전했다. 이외에도 다양한 혜택이 있는 데이즈호텔 제주시티(www.데이즈호텔제주시티.net)는 현재 서울시 양재동 모델하우스에서 만나 볼 수 있으며, 청약금 100만원을 입금하면 바다조망이 가능한 로열 호실을 우선 배정 받는다. 청약계좌는 국제자산신탁㈜: 393301-04-036106 (국민은행)이며, 미계약으로 진행 될 경우 전액 환불된다. 문의: 1688-8327 인터넷마케팅팀 [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 좌표찍기·언론탄압? 대통령실, 4년전 靑대변인 본받았다면…[한기호의 정치박박] [The Car] “해외서는 G80보다 우위”…입지 공고해지는 제네시스 G70 中 20차 당대회 끝나면 대만이 위험하다[박영서의 글로벌 아이] [THE GAME] 넥슨, 신작 잭팟에 인재 채용… 흥행 영수증 잇는다 이 시간 핫클릭 김기현 폭발, 이재명 겨냥 “형수에 욕설 퍼붓고도 큰소리 뻥뻥…기가 찰 노릇” 김건희 박사 논문, 심사위원 5명 필적 "동일인 추정" 감사원 `서해피살` 문 전대통령 정조준…與 "`월북 명예살인` 규명 당연" 국힘 "MBC 尹 발언 왜곡보도후 美백악관에 이간질까지…`바이든` 자막의도 밝혀야" 가장 많이 본 기사 문화일보 핫 뉴스1이스라엘 유적지서 동로마시대 금화 무더기 발굴 2국무총리 정세균?...포항지진피해심의위, 홈페이지 방치하고 태풍 힌남노 복구 기간에 지원금 환수 절차 3“상상도 못할 말로 우릴 씹어대”…박연수, 가족 험담에 분노 4노벨 생리의학상에 ‘인류 진화’ 연구자 스반테 페보 5영국발 금융위기론 촉발한 대규모 감세 정책, 열흘 만에 ‘백기’든 신임 총리 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
-  </si>
-  <si>
-    <t>장수 오룡봉 청년회, 가정의 달 맞아 제주도 효도관광 '선행'(정치/사회)-NSP통신 반복내용 건너뛰기(skip to main content) Korea Business News Agency - NSP통신 11th(2022.10.04 FILE)클럽NSPNSP구글뉴스NSP트위터NSP페이스북 NSP통신 뉴스전국NSP리포트소상공인포토/영상 메뉴검색기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회대통령실/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰탐방인사부고동정신상품/리뷰신상품체험리뷰해명/반론정치경제사회전국문화연예 기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회청와대/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰|탐방|인사부고|동정신상품/리뷰신상품체험리뷰해명/반론정치|경제|사회전국|문화|연예검색 search 검색 대통령실/중앙행정국회위/정당지자체/정당사회/단체 ▶ NSP통신 인천, 경기북부 등 전국지사 모집   한국의 경제뉴스통신사 - NSP통신 인쇄 확대 축소장수 오룡봉 청년회, 가정의 달 맞아 제주도 효도관광 '선행'2015-05-04 17:10, 고달영 기자 [XML:KR:1904:사회/단체] #장수군 산서면 #오룡봉 청년회 #한병원 장수군 산서면 오룡봉 청년회원들은 가정의 달을 맞아 60여 명의 노인들을 모시고 제주도를 방문해 기념촬영에 임하는 모습 (전북=NSP통신) 고달영 기자 = 전북 장수군 산서면 오룡봉 청년회 한병원 추진위원장은 5월 가정의 달을 맞아 60여 명의 이룡마을 노인들과 함께 1박2일간 제주도 효도관광 여행을 실시했다고 4일 밝혔다.마을 청년회는 이룡마을 노인 중 평생 제주도를 가보지 못했거나 비행기를 타보지 못한 분이 있다는 안타까운 소식을 접하고 5월 가정의 달을 맞아 제주도 효도관광을 추진했다.한 어르신 이승열(86)씨는 “생전에 비행기를 타 볼 수 있을까 했는데, 마을 청년회에서 이렇게 효도 관광을 보내줘 참으로 기쁘다"고 고마움을 표했다.. NSP통신/NSP TV 고달영 기자, gdy6000@nspna.com저작권자ⓒ 한국의 경제뉴스통신사 NSP통신·NSP TV. 무단전재-재배포 금지. 카카오톡 카카오스토리 밴드 페이스북 트위터 네이버블로그 프린트 Advertizement녹제거/부식방지/윤활 방청윤활제 RX3-360NSP통신 200여 국가에 뉴스 공급NSP통신 전국지사모집NSP통신 증권사 HTS/MTS 뉴스 공급오늘의 주요뉴스 LH, 최근 5년간 개발이익 21조원 달해…"실제 수익은 더욱 많을 것" 국토안전관리원, 최근 3년간 '저조한 경영평가'에도 '임원 성과급' 더 늘어나 산은 "대우조선해양 경영진 선임은 대주주 권한…노조 주장은 불합리" 침수위험지역 반지하 가구 4만6천가구에 달해…"반지하 가구 주거상향 지원 실시해야" 대한민국 육·해·공군, 병사에서 위관장교까지 군내 마약범죄 증가   포스코건설, 신반포 청구아파트 리모델링사업 수주 SPC그룹, 프랑스에 파리바게뜨 3개점 잇따라 오픈 남양유업, 대리점 자녀 위한 패밀리 장학금 지급 건설현장 불공정 피해 신고 1년간 '232건'...불법하도급 등 '불법행위' 심각 폭스바겐코리아, ID.4 출시 기념 전시 행사 진행 테마기획 시승기 타보니 [타보니]르노 QM6 가솔린 모델, 승차감·파워·연비 좋은 ‘조용한 SUV’[타보니]DS 7 크로스백, 반응속도 빠르고 연비 좋은 ‘친환경 차’ NSP리포트더보기 입사 나흘만에 극단적 선택한 예보 직원, “기간제라 교육없었다” 폭스바겐코리아, ID.4 출시 기념 전시 행사 진행 현대차그룹, 중남미·유럽 5개국서 부산세계 박람회 유치 활동 전개 [타보니]르노 QM6 가솔린 모델, 승차감·파워·연비 좋은 ‘조용한 SUV’ 자동차 급발진 사고, 국산차 현대차 1위…수입차는 ‘BMW’ NSP통신 전국지사모집 more 한국의 경제뉴스통신사인 NSP통신이 1월 1일부터 전국 지역 지사를 모집합니다. 모집지역 인천, 경기동부, 경기북부, 대전, 광주, 강원, 충북, 전북, 울산, 경남, 경남서부, 제주 등 모집문의 [상세보기] 070-7599-1620 okyes@nspna.com, 지원서(hwp) 회사소개 회사연혁 저작권규약 광고 및 컨텐츠제휴문의 고충처리 채용안내 전국취재본부및지사 연락처 구글뉴스 트위터 페이스북 (07236) 서울시 영등포구 국회대로750 금산빌딩 3층 | TEL: (02)3272-2140~2 | FAX: (02)3272-2144 3F 750, Gukhoe-daero, Yeongdeungpo-gu, Seoul, 07236 Republic of Korea | TEL: +82-2-3272-2140~2 | FAX: +82-2-3272-2144 등록번호: 문화 나 00018호 | 등록일자: 2011.6. 29 | 발행인: 김정태 | 편집인: 류수운 | 고충처리인: 강은태 NSP통신·NSP TV의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재.복사.배포를 금합니다. ⓒ (주)NSP뉴스통신사. All rights reserved. ❝ NSP통신은 한국의 경제뉴스통신사입니다. 클린미디어운동-NSP통신은 보도자료 전송서비스를 하지 않습니다. ❞ Capture mode Home Top</t>
-  </si>
-  <si>
-    <t>제주도, 올들어 최다 관광객…1일 5만명 ‘훌쩍’ - 이투데이 속보창 구독신청 RSS 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 문화·라이프 여행 제주도, 올들어 최다 관광객…1일 5만명 ‘훌쩍’ 입력 2015-05-01 21:12 온라인뉴스팀 																								online@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 근로자의 날(노동절)이자 어린이날(5일)로 이어지는 징검다리 연휴 첫날 제주도에 가장 많은 관광객이 찾은것으로 나타났다.1일 제주도관광협회에 따르면 관광객 5만여명이 항공기와 선박편으로 제주를 방문한 것으로 잠정집계돼 올해 들어 하루 최다 관광객 수를 기록할 것이 확실시된다. 이날 현재까지 하루 관광객 수는 지난달 17일 4만9719명(내국인 3만5881명, 외국인 1만3838명), 지난달 18일 4만8105명(내국인 3만3221명, 외국인 1만4884명) 순 이었다.제주를 방문한 관광객이 하루에 5만명을 넘긴 것은 지난해 8월15일 5만2468명(내국인 3만3612명, 외국인 1만8856명)이 사상 처음이며 동시에 현재까지 하루 단위로 역대 최다 기록이다. 그다음은 지난해 9월6일 5만981명(내국인 3만9803명, 외국인 1만1178명)이다.도관광협회는 2일에도 5만명이 넘는 관광객이 제주를 찾을 것으로 예상해 1일과 2일 역대 하루 입도객 2∼3위를 갈아치울 것으로 내다봤다.이 기간 제주 노선 항공편 좌석 예약률은 80∼90％로 만석에 가깝고 렌터카 가동률 85∼90％, 전세버스의 예약률도 70∼75％, 숙박업소의 객실 예약률은 호텔 85∼90％, 콘도미니엄 90∼95％ 등 거의 만원이다.한편 지난달 제주를 방문한 누적 관광객도 124만9091명으로 잠정 집계돼 월 단위 역대 최다 기록을 세웠다. 이는 월 단위 종전 최다기록인 지난해 8월 124만7474명에 견줘 0.1％(1617명) 많다. #제주도 #근로자의날 #어린이날 #관광객 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 10 [사설] 퍼펙트스톰 오는데 정치권은 정쟁에 강 건너 불구경 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 문화·라이프 최신 뉴스 ‘동상이몽2’ 황보라 “결혼식 전 이미 차현우와 혼인신고…하정우 속상해해” ‘결혼지옥’ 무직 남편, 13살 연하 우즈벡 아내에게 폭언…“너 돈으로 사온 것” 양조위·이병헌·이영애 스타 총출동...전성기 회복 노리는 부산국제영화제 ‘조선의 4번 타자’ 이대호, 은퇴시즌 100타점 달성…롯데 5년 연속 PS 탈락 서울·프랑스·독일 흙 모아 그린 채성필 "본질적 아름다움 찾고자" 인도네시아 축구 참사 사망자 174명으로...FIFA 회장 "이해할 수 없는 비극" 애도 ‘공조2’, 600만 관객 돌파…올해 韓 영화 중 3번째 한채아, 시아버지 차범근 축구교실 중단에 서운…"그동안 감사했다" 뭉클 유소연, 어센던트 LPGA 3라운드 공동 6위…선두와 3타 차 김호중, 생일날 신곡 선물…오늘(2일) '나의 목소리로' 발표 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' 삼성전자·SK하이닉스, 저가매수ㆍ반등 시도…4%대 강세 [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 09:46 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.KR모터스 92 3.디아이씨 420 4.일진홀딩스 495 5.미래아이앤지 32 1.라닉스 1,520 2.오토앤 2,350 3.유안타제7호스팩 750 4.칩스앤미디어 3,050 5.오픈엣지테크놀로지 2,200 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,204,000 +1.49% 이더리움 1,905,000 +2.09% 비트코인 캐시 167,300 -0.3% 리플 658.5 -0.06% 위믹스 2,593 +1.05% 에이다 614.1 +0.03% 이오스 1,698 -0.06% 트론 88.2 -0.74% 스텔라루멘 166.9 -4.19% 비트코인에스브이 69,600 +0.29% 체인링크 10,680 +2.69% 샌드박스 1,195 +1.27% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+    <t>관광객 유치 1등 제주도에 데이즈호텔 3차 분양 시작 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 관광객 유치 1등 제주도에 데이즈호텔 3차 분양 시작 인터넷마케팅팀 입력: 2015-05-11 14:22 제주도는 세계에서 유일하게 한 지역에 세계자연유산이 3개를 보유한 지역으로 환경적 자산가치를 전 세계적으로 인정받은 청정관광지구이다. 따라서 매년 관광객이 증가하고 있다. 특히 그중에서도 중국인 관광객들이 크게 증가 하고 있다. 이러한 추세에 윈덤그룹은 중국에서 125개의 호텔을 운영하는 노하우를 살려 중국인들에게 익숙한 호텔이라는 데이즈를 내세워 중국인 관광객을 유치할 예정이다. 중국인 관광객뿐만 아니라 많은 국내,외 관광객들이 많이 찾는 제주도지만 관광객수요에 비해 수용할 객실이 턱없이 부족한 실정. 이러한 문제를 제주데이즈호텔의 1차, 2차 분양 완료에 이어 3차인 데이즈호텔 제주시티가 해결해 줄 것으로 내다보고 있다. 데이즈호텔은 전 세계 약 70개국에서 7380여개의 호텔을 운영하고 있는 윈덤그룹의 대표적인 브랜드로, 국내 약 50여개의 호텔을 컨설팅 한 노하우를 지닌 전문운영사인 산하HM과 함께 운영한다. 데이즈호텔 제주시티는 지하 2층에서 시작하여 지상 10으로 총 12층으로 구성되어 있다. 관광객을 위한 편의시설로 단체 관광객을 위한 관광버스 6대를 동시주차 할 수 있는 주차장도 마련되어 있으며, 레스토랑, 휘트니스센터 등 다양한 부대시설까지 준비되어 있다. 또한 투숙객들이 제주도 자연경관을 한눈에 볼 수 있도록 옥상에는 하늘공원이 있다. 이러한 데이즈호텔 제주시티 투자를 통해 분양을 받으면 연 16% 확정수익 보장과 이에 따른 보증서가 발급되며, 계약금 10% 중도금 전액이 무이자이다. 또한 오피스텔처럼 개별 등기 분양이 가능하고 계약금 10%에 대한 연 4.55% 이자 지급을 2년 동안 보장한다고 데이즈호텔 측은 전했다. 이외에도 다양한 혜택이 있는 데이즈호텔 제주시티(www.데이즈호텔제주시티.net)는 현재 서울시 양재동 모델하우스에서 만나 볼 수 있으며, 청약금 100만원을 입금하면 바다조망이 가능한 로열 호실을 우선 배정 받는다. 청약계좌는 국제자산신탁㈜: 393301-04-036106 (국민은행)이며, 미계약으로 진행 될 경우 전액 환불된다. 문의: 1688-8327 인터넷마케팅팀 [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 세금방석 위에서 외치는 표현의 자유?[한기호의 정치박박] [이규화의 지리각각] `더라인`, 끝판왕 도시인가 초호화 감옥인가 [객석] 네 줄의 현으로만 느끼는 바흐… 세 번째 계절 때맞게 무르익네 [THE GAME] 언디셈버부터 퀀텀나이츠까지… 라인게임즈 야심작, 판 흔든다 이 시간 핫클릭 당정, 여성계 의견 청취 등 여가부 폐지 속도… 민주당 강력 반발 조경태 "국회의원 면책특권 없애야" 국힘 "文 4대강 감사지시 불법, 靑민정실 회전문 인사야말로 감사원 독립 훼손" 가처분 완패 이준석… `신당 창당` 고행길 걷나 가장 많이 본 기사 문화일보 핫 뉴스1신혜성, 도난차량으로 음주운전 인정...“죄송하다” 2미 서부 명문 스탠퍼드대학서 대낮 성폭행 사건 잇따라 3“외국계 증권사, 네이버 매도의견 낸 후 대량 공매도...피해는 개미투자자에게” 4노벨경제학상에 ‘금융위기 연구’ 버냉키 등 美경제학자 3인 5밀대로 학생 엉덩이 때린 20대 교사 징역형 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
+  </si>
+  <si>
+    <t>장수 오룡봉 청년회, 가정의 달 맞아 제주도 효도관광 '선행'(정치/사회)-NSP통신 반복내용 건너뛰기(skip to main content) Korea Business News Agency - NSP통신 11th(2022.10.11 FILE)클럽NSPNSP구글뉴스NSP트위터NSP페이스북 NSP통신 뉴스전국NSP리포트소상공인포토/영상 메뉴검색기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회대통령실/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰탐방인사부고동정신상품/리뷰신상품체험리뷰해명/반론정치경제사회전국문화연예 기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회청와대/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰|탐방|인사부고|동정신상품/리뷰신상품체험리뷰해명/반론정치|경제|사회전국|문화|연예검색 search 검색 대통령실/중앙행정국회위/정당지자체/정당사회/단체 ▶ NSP통신 인천, 경기북부 등 전국지사 모집   한국의 경제뉴스통신사 - NSP통신 인쇄 확대 축소장수 오룡봉 청년회, 가정의 달 맞아 제주도 효도관광 '선행'2015-05-04 17:10, 고달영 기자 [XML:KR:1904:사회/단체] #장수군 산서면 #오룡봉 청년회 #한병원 장수군 산서면 오룡봉 청년회원들은 가정의 달을 맞아 60여 명의 노인들을 모시고 제주도를 방문해 기념촬영에 임하는 모습 (전북=NSP통신) 고달영 기자 = 전북 장수군 산서면 오룡봉 청년회 한병원 추진위원장은 5월 가정의 달을 맞아 60여 명의 이룡마을 노인들과 함께 1박2일간 제주도 효도관광 여행을 실시했다고 4일 밝혔다.마을 청년회는 이룡마을 노인 중 평생 제주도를 가보지 못했거나 비행기를 타보지 못한 분이 있다는 안타까운 소식을 접하고 5월 가정의 달을 맞아 제주도 효도관광을 추진했다.한 어르신 이승열(86)씨는 “생전에 비행기를 타 볼 수 있을까 했는데, 마을 청년회에서 이렇게 효도 관광을 보내줘 참으로 기쁘다"고 고마움을 표했다.. NSP통신/NSP TV 고달영 기자, gdy6000@nspna.com저작권자ⓒ 한국의 경제뉴스통신사 NSP통신·NSP TV. 무단전재-재배포 금지. 카카오톡 카카오스토리 밴드 페이스북 트위터 네이버블로그 프린트 AdvertizementNSP통신 200여 국가에 뉴스 공급녹제거/부식방지/윤활 방청윤활제 RX3-360NSP통신 전국지사모집NSP통신 증권사 HTS/MTS 뉴스 공급오늘의 주요뉴스 한은 "9월 경상수지 흑자 가능성↑…월별 변동성 클 것" 외환보유액 '금융위기 후 최대폭 감소'…197억달러↓ 한은, "외식물가 오름세 지속 확대"...소비자물가, 상당기간 5~6%대 높은 오름세 전망 저축은행·보험사 부동산 PF 대출 5년 새 24조6천억원 증가 주요 금융회사, 기재부·금융위·금감원 출신 114명 대거 포진   카카오뱅크 임원진, 자사주 5만4685주 매입…"책임경영·주주가치제고" 삼성전자, 반도체 수요 부진으로 실적 부진 전주시·행안부, 21~22일 '지구사랑 두바퀴 대축제' 개최 대우건설, 우즈베키스탄 민관합동사업 공동추친 케이뱅크, 아파트 신규 구입자금 대출 선봬…'최저 연 3.18%' 테마기획 시승기 타보니 [타보니]르노 QM6 가솔린 모델, 승차감·파워·연비 좋은 ‘조용한 SUV’[타보니]DS 7 크로스백, 반응속도 빠르고 연비 좋은 ‘친환경 차’ NSP리포트더보기 케이뱅크, 아파트 신규 구입자금 대출 선봬…‘최저 연 3.18%’ 토스플레이스 오프라인 결제단말기 시범 서비스 시작 토요타코리아, ‘2022 토요타 서비스 캠페인’ 실시 현대차·테이트 미술관, 파트너십 일곱 번째 전시 신한은행, 뉴진스 손 잡고 ‘뉴 쏠’ 공개 NSP통신 전국지사모집 more 한국의 경제뉴스통신사인 NSP통신이 1월 1일부터 전국 지역 지사를 모집합니다. 모집지역 인천, 경기동부, 경기북부, 대전, 광주, 강원, 충북, 전북, 울산, 경남, 경남서부, 제주 등 모집문의 [상세보기] 070-7599-1620 okyes@nspna.com, 지원서(hwp) 회사소개 회사연혁 저작권규약 광고 및 컨텐츠제휴문의 고충처리 채용안내 전국취재본부및지사 연락처 구글뉴스 트위터 페이스북 (07236) 서울시 영등포구 국회대로750 금산빌딩 3층 | TEL: (02)3272-2140~2 | FAX: (02)3272-2144 3F 750, Gukhoe-daero, Yeongdeungpo-gu, Seoul, 07236 Republic of Korea | TEL: +82-2-3272-2140~2 | FAX: +82-2-3272-2144 등록번호: 문화 나 00018호 | 등록일자: 2011.6. 29 | 발행인: 김정태 | 편집인: 류수운 | 고충처리인: 강은태 NSP통신·NSP TV의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재.복사.배포를 금합니다. ⓒ (주)NSP뉴스통신사. All rights reserved. ❝ NSP통신은 한국의 경제뉴스통신사입니다. 클린미디어운동-NSP통신은 보도자료 전송서비스를 하지 않습니다. ❞ Capture mode Home Top</t>
+  </si>
+  <si>
+    <t>제주도, 상하이 세계관광박람회 참가 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 상하이 세계관광박람회 참가 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 상하이 세계관광박람회 참가 기자명 고병수 기자 입력 2015.05.06 11:04 수정 2015.05.06 11:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주특별자치도와 제주관광공사는 6일부터 오는 9일까지 중국 상하이시에서 개최되는 2015 상하이 세계관광박람회(WTF)에 참가한다고 밝혔다.도는 박람회를 통해 개별관광으로 제주관광 패러다임 전환 및 고부가가치 SIT(특수목적관광)관광객 유치를 위한 마케팅을 추진한다.또한 중국 화동지역 개별관광객 유치를 위해 해당지역 직항운항 업체 및 중국 최대 온라인 여행사인 Ctrip 등 주요 여행업계를 방문한다. 관계자는 "이번 박람회는 제주자유여행을 홍보 테마로 제주관광 홍보부스를 운영하며 무사증 제도 등 제주관광의 이점을 이용한 제주 SIT 상품 및 개별관광 목적지로의 제주 브랜드 가치를 홍보하고, 현지 여행업체 및 소비자를 대상으로 홍보 및 모객활동을 펼칠 계획"이라고 말했다.한편 이번 박람회는 상해시여유국 주최로 개최되는 박람회로 55개 국가, 550개 기관이 참가하고, 박람회 관람객이 4만명에 달하는 국제적인 규모의 박람회이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>장수 오룡봉 청년회, 가정의 달 맞아 제주도 효도관광 '선행'(정치/사회)-NSP통신 반복내용 건너뛰기(skip to main content) Korea Business News Agency - NSP통신 11th(2022.10.11 FILE)클럽NSPNSP구글뉴스NSP트위터NSP페이스북 NSP통신 뉴스전국NSP리포트소상공인포토/영상 메뉴검색기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회대통령실/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰탐방인사부고동정신상품/리뷰신상품체험리뷰해명/반론정치경제사회전국문화연예 기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회청와대/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰|탐방|인사부고|동정신상품/리뷰신상품체험리뷰해명/반론정치|경제|사회전국|문화|연예검색 search 검색 대통령실/중앙행정국회위/정당지자체/정당사회/단체 ▶ NSP통신 인천, 경기북부 등 전국지사 모집   한국의 경제뉴스통신사 - NSP통신 인쇄 확대 축소장수 오룡봉 청년회, 가정의 달 맞아 제주도 효도관광 '선행'2015-05-04 17:10, 고달영 기자 [XML:KR:1904:사회/단체] #장수군 산서면 #오룡봉 청년회 #한병원 장수군 산서면 오룡봉 청년회원들은 가정의 달을 맞아 60여 명의 노인들을 모시고 제주도를 방문해 기념촬영에 임하는 모습 (전북=NSP통신) 고달영 기자 = 전북 장수군 산서면 오룡봉 청년회 한병원 추진위원장은 5월 가정의 달을 맞아 60여 명의 이룡마을 노인들과 함께 1박2일간 제주도 효도관광 여행을 실시했다고 4일 밝혔다.마을 청년회는 이룡마을 노인 중 평생 제주도를 가보지 못했거나 비행기를 타보지 못한 분이 있다는 안타까운 소식을 접하고 5월 가정의 달을 맞아 제주도 효도관광을 추진했다.한 어르신 이승열(86)씨는 “생전에 비행기를 타 볼 수 있을까 했는데, 마을 청년회에서 이렇게 효도 관광을 보내줘 참으로 기쁘다"고 고마움을 표했다.. NSP통신/NSP TV 고달영 기자, gdy6000@nspna.com저작권자ⓒ 한국의 경제뉴스통신사 NSP통신·NSP TV. 무단전재-재배포 금지. 카카오톡 카카오스토리 밴드 페이스북 트위터 네이버블로그 프린트 AdvertizementNSP통신 200여 국가에 뉴스 공급NSP통신 전국지사모집NSP통신 증권사 HTS/MTS 뉴스 공급녹제거/부식방지/윤활 방청윤활제 RX3-360오늘의 주요뉴스 한은 "9월 경상수지 흑자 가능성↑…월별 변동성 클 것" 외환보유액 '금융위기 후 최대폭 감소'…197억달러↓ 한은, "외식물가 오름세 지속 확대"...소비자물가, 상당기간 5~6%대 높은 오름세 전망 저축은행·보험사 부동산 PF 대출 5년 새 24조6천억원 증가 주요 금융회사, 기재부·금융위·금감원 출신 114명 대거 포진   카카오뱅크 임원진, 자사주 5만4685주 매입…"책임경영·주주가치제고" 삼성전자, 반도체 수요 부진으로 실적 부진 전주시·행안부, 21~22일 '지구사랑 두바퀴 대축제' 개최 대우건설, 우즈베키스탄 민관합동사업 공동추친 케이뱅크, 아파트 신규 구입자금 대출 선봬…'최저 연 3.18%' 테마기획 시승기 타보니 [타보니]르노 QM6 가솔린 모델, 승차감·파워·연비 좋은 ‘조용한 SUV’[타보니]DS 7 크로스백, 반응속도 빠르고 연비 좋은 ‘친환경 차’ NSP리포트더보기 케이뱅크, 아파트 신규 구입자금 대출 선봬…‘최저 연 3.18%’ 토스플레이스 오프라인 결제단말기 시범 서비스 시작 토요타코리아, ‘2022 토요타 서비스 캠페인’ 실시 현대차·테이트 미술관, 파트너십 일곱 번째 전시 신한은행, 뉴진스 손 잡고 ‘뉴 쏠’ 공개 NSP통신 전국지사모집 more 한국의 경제뉴스통신사인 NSP통신이 1월 1일부터 전국 지역 지사를 모집합니다. 모집지역 인천, 경기동부, 경기북부, 대전, 광주, 강원, 충북, 전북, 울산, 경남, 경남서부, 제주 등 모집문의 [상세보기] 070-7599-1620 okyes@nspna.com, 지원서(hwp) 회사소개 회사연혁 저작권규약 광고 및 컨텐츠제휴문의 고충처리 채용안내 전국취재본부및지사 연락처 구글뉴스 트위터 페이스북 (07236) 서울시 영등포구 국회대로750 금산빌딩 3층 | TEL: (02)3272-2140~2 | FAX: (02)3272-2144 3F 750, Gukhoe-daero, Yeongdeungpo-gu, Seoul, 07236 Republic of Korea | TEL: +82-2-3272-2140~2 | FAX: +82-2-3272-2144 등록번호: 문화 나 00018호 | 등록일자: 2011.6. 29 | 발행인: 김정태 | 편집인: 류수운 | 고충처리인: 강은태 NSP통신·NSP TV의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재.복사.배포를 금합니다. ⓒ (주)NSP뉴스통신사. All rights reserved. ❝ NSP통신은 한국의 경제뉴스통신사입니다. 클린미디어운동-NSP통신은 보도자료 전송서비스를 하지 않습니다. ❞ Capture mode Home Top</t>
+  </si>
+  <si>
+    <t>제주도, 올들어 최다 관광객…1일 5만명 ‘훌쩍’ - 이투데이 속보창 구독신청 RSS 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 문화·라이프 여행 제주도, 올들어 최다 관광객…1일 5만명 ‘훌쩍’ 입력 2015-05-01 21:12 온라인뉴스팀 																								online@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 근로자의 날(노동절)이자 어린이날(5일)로 이어지는 징검다리 연휴 첫날 제주도에 가장 많은 관광객이 찾은것으로 나타났다.1일 제주도관광협회에 따르면 관광객 5만여명이 항공기와 선박편으로 제주를 방문한 것으로 잠정집계돼 올해 들어 하루 최다 관광객 수를 기록할 것이 확실시된다. 이날 현재까지 하루 관광객 수는 지난달 17일 4만9719명(내국인 3만5881명, 외국인 1만3838명), 지난달 18일 4만8105명(내국인 3만3221명, 외국인 1만4884명) 순 이었다.제주를 방문한 관광객이 하루에 5만명을 넘긴 것은 지난해 8월15일 5만2468명(내국인 3만3612명, 외국인 1만8856명)이 사상 처음이며 동시에 현재까지 하루 단위로 역대 최다 기록이다. 그다음은 지난해 9월6일 5만981명(내국인 3만9803명, 외국인 1만1178명)이다.도관광협회는 2일에도 5만명이 넘는 관광객이 제주를 찾을 것으로 예상해 1일과 2일 역대 하루 입도객 2∼3위를 갈아치울 것으로 내다봤다.이 기간 제주 노선 항공편 좌석 예약률은 80∼90％로 만석에 가깝고 렌터카 가동률 85∼90％, 전세버스의 예약률도 70∼75％, 숙박업소의 객실 예약률은 호텔 85∼90％, 콘도미니엄 90∼95％ 등 거의 만원이다.한편 지난달 제주를 방문한 누적 관광객도 124만9091명으로 잠정 집계돼 월 단위 역대 최다 기록을 세웠다. 이는 월 단위 종전 최다기록인 지난해 8월 124만7474명에 견줘 0.1％(1617명) 많다. #제주도 #근로자의날 #어린이날 #관광객 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 03 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 04 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 05 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 06 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 07 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 08 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 09 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 10 [사설] 반도체 위기 현실화, K칩스법 처리 시급하다 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 문화·라이프 최신 뉴스 ‘결혼 6년차’ 오상진·김소영, ‘동상이몽2’ 합류…똑 닮은 4살 딸 최초 공개 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” MLB, 한국 유소년 발전 장학금 전달 ‘결혼지옥’ 외도 2번 저지른 79세 남편…“내연녀, 우수한 대학 성적 보기 좋더라” ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 PGA 2승 김주형, 세계랭킹 15위로 ‘껑충’ "여자나 남자나 카메라는 똑같이 무겁다"...여성 촬영감독이 말하는 책임감 [종합] 20세 김주형 PGA 2승… ‘골프황제’ 우즈도 넘었다 송강호·예지원 프랑스 ‘에투알 뒤 시네마’ 수상 20세 김주형 2승, 골프황제 우즈도 넘어섰다 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 모더나, 오미크론 대응 2가 백신 국내 접종 시작 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 11:30 20분지연 코스피 코스닥 1.다이나믹디자인 3,050 2.화천기계 1,220 3.베트남개발1 68 4.유니온머티리얼 340 5.휴니드 440 1.테라셈 22 2.코아스템 2,680 3.이노룰스 3,650 4.동국알앤에스 760 5.코디엠 113 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,335,000 -1.69% 이더리움 1,833,000 -3.17% 비트코인 캐시 159,000 -5.3% 리플 711.1 -5.98% 위믹스 2,400 -5.33% 에이다 566.5 -6.47% 이오스 1,483 -7.72% 트론 88.52 -0.62% 스텔라루멘 176.2 -3.72% 비트코인에스브이 67,850 -4.17% 체인링크 10,390 -5.11% 샌드박스 1,129 -5.6% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
   </si>
 </sst>
 </file>
@@ -419,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,9 +569,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -451,9 +577,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -471,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -482,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -493,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -503,6 +626,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -512,7 +638,316 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
